--- a/server/src/main/resources/fundclass/demo.xlsx
+++ b/server/src/main/resources/fundclass/demo.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9300" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="589">
   <si>
     <t>000918.CSI</t>
   </si>
@@ -1431,6 +1432,99 @@
   </si>
   <si>
     <t>931161.CSI</t>
+  </si>
+  <si>
+    <t>000004.SH</t>
+  </si>
+  <si>
+    <t>000005.SH</t>
+  </si>
+  <si>
+    <t>000006.SH</t>
+  </si>
+  <si>
+    <t>000007.SH</t>
+  </si>
+  <si>
+    <t>000008.SH</t>
+  </si>
+  <si>
+    <t>399231.SZ</t>
+  </si>
+  <si>
+    <t>399232.SZ</t>
+  </si>
+  <si>
+    <t>399233.SZ</t>
+  </si>
+  <si>
+    <t>399234.SZ</t>
+  </si>
+  <si>
+    <t>399235.SZ</t>
+  </si>
+  <si>
+    <t>399236.SZ</t>
+  </si>
+  <si>
+    <t>399237.SZ</t>
+  </si>
+  <si>
+    <t>399238.SZ</t>
+  </si>
+  <si>
+    <t>399239.SZ</t>
+  </si>
+  <si>
+    <t>399240.SZ</t>
+  </si>
+  <si>
+    <t>399241.SZ</t>
+  </si>
+  <si>
+    <t>399242.SZ</t>
+  </si>
+  <si>
+    <t>399243.SZ</t>
+  </si>
+  <si>
+    <t>399244.SZ</t>
+  </si>
+  <si>
+    <t>399248.SZ</t>
+  </si>
+  <si>
+    <t>399249.SZ</t>
+  </si>
+  <si>
+    <t>000002.SH</t>
+  </si>
+  <si>
+    <t>000017.SH</t>
+  </si>
+  <si>
+    <t>000020.SH</t>
+  </si>
+  <si>
+    <t>000090.SH</t>
+  </si>
+  <si>
+    <t>000100.SZ</t>
+  </si>
+  <si>
+    <t>000101.SZ</t>
+  </si>
+  <si>
+    <t>000102.SZ</t>
+  </si>
+  <si>
+    <t>000106.SZ</t>
+  </si>
+  <si>
+    <t>000107.SZ</t>
+  </si>
+  <si>
+    <t>399317.SZ</t>
   </si>
   <si>
     <t>01</t>
@@ -2415,11 +2509,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2513,6 +2607,18 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2780,10 +2886,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D357"/>
+  <dimension ref="A1:D388"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A362" workbookViewId="0">
+      <selection activeCell="A379" sqref="$A379:$XFD379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -2795,10 +2901,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.15" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -2807,10 +2913,10 @@
       <c r="D1" s="5"/>
     </row>
     <row r="2" ht="15.15" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -2819,10 +2925,10 @@
       <c r="D2" s="5"/>
     </row>
     <row r="3" ht="15.15" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -2831,10 +2937,10 @@
       <c r="D3" s="5"/>
     </row>
     <row r="4" ht="15.15" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -2843,10 +2949,10 @@
       <c r="D4" s="5"/>
     </row>
     <row r="5" ht="15.15" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -2855,10 +2961,10 @@
       <c r="D5" s="5"/>
     </row>
     <row r="6" ht="15.15" spans="1:4">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -2867,10 +2973,10 @@
       <c r="D6" s="6"/>
     </row>
     <row r="7" ht="15.15" spans="1:4">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -2879,10 +2985,10 @@
       <c r="D7" s="5"/>
     </row>
     <row r="8" ht="15.15" spans="1:4">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -2894,7 +3000,7 @@
       <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -2905,10 +3011,10 @@
       </c>
     </row>
     <row r="10" ht="15.15" spans="1:4">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -2917,10 +3023,10 @@
       <c r="D10" s="9"/>
     </row>
     <row r="11" ht="15.15" spans="1:4">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -2929,10 +3035,10 @@
       <c r="D11" s="10"/>
     </row>
     <row r="12" ht="15.15" spans="1:4">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -2941,10 +3047,10 @@
       <c r="D12" s="10"/>
     </row>
     <row r="13" ht="15.15" spans="1:4">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -2953,10 +3059,10 @@
       <c r="D13" s="11"/>
     </row>
     <row r="14" ht="15.15" spans="1:4">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -2965,10 +3071,10 @@
       <c r="D14" s="10"/>
     </row>
     <row r="15" ht="15.15" spans="1:4">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -2977,10 +3083,10 @@
       <c r="D15" s="9"/>
     </row>
     <row r="16" ht="15.15" spans="1:4">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -2989,10 +3095,10 @@
       <c r="D16" s="10"/>
     </row>
     <row r="17" ht="15.15" spans="1:4">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -3001,10 +3107,10 @@
       <c r="D17" s="10"/>
     </row>
     <row r="18" ht="15.15" spans="1:4">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -3015,10 +3121,10 @@
       </c>
     </row>
     <row r="19" ht="15.15" spans="1:4">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="13" t="s">
@@ -3029,10 +3135,10 @@
       </c>
     </row>
     <row r="20" ht="15.15" spans="1:4">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -3043,10 +3149,10 @@
       </c>
     </row>
     <row r="21" ht="15.15" spans="1:4">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -3057,10 +3163,10 @@
       </c>
     </row>
     <row r="22" ht="15.15" spans="1:4">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -3071,10 +3177,10 @@
       </c>
     </row>
     <row r="23" ht="15.15" spans="1:4">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -3085,10 +3191,10 @@
       </c>
     </row>
     <row r="24" ht="15.15" spans="1:4">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C24" s="10" t="s">
@@ -3099,10 +3205,10 @@
       </c>
     </row>
     <row r="25" ht="15.15" spans="1:4">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -3111,10 +3217,10 @@
       <c r="D25" s="10"/>
     </row>
     <row r="26" ht="15.15" spans="1:4">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -3123,10 +3229,10 @@
       <c r="D26" s="10"/>
     </row>
     <row r="27" ht="15.15" spans="1:4">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -3135,10 +3241,10 @@
       <c r="D27" s="10"/>
     </row>
     <row r="28" ht="15.15" spans="1:4">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -3147,10 +3253,10 @@
       <c r="D28" s="10"/>
     </row>
     <row r="29" ht="15.15" spans="1:4">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -3159,10 +3265,10 @@
       <c r="D29" s="10"/>
     </row>
     <row r="30" ht="15.15" spans="1:4">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C30" s="13" t="s">
@@ -3171,10 +3277,10 @@
       <c r="D30" s="10"/>
     </row>
     <row r="31" ht="15.15" spans="1:4">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -3183,10 +3289,10 @@
       <c r="D31" s="9"/>
     </row>
     <row r="32" ht="15.15" spans="1:4">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -3195,10 +3301,10 @@
       <c r="D32" s="10"/>
     </row>
     <row r="33" ht="15.15" spans="1:4">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -3207,10 +3313,10 @@
       <c r="D33" s="10"/>
     </row>
     <row r="34" ht="15.15" spans="1:4">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -3219,10 +3325,10 @@
       <c r="D34" s="10"/>
     </row>
     <row r="35" ht="15.15" spans="1:4">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -3231,10 +3337,10 @@
       <c r="D35" s="5"/>
     </row>
     <row r="36" ht="15.15" spans="1:4">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -3245,10 +3351,10 @@
       </c>
     </row>
     <row r="37" ht="15.15" spans="1:4">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -3259,7 +3365,7 @@
       </c>
     </row>
     <row r="38" ht="15.15" spans="1:4">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B38" s="15" t="s">
@@ -3273,10 +3379,10 @@
       </c>
     </row>
     <row r="39" ht="15.15" spans="1:4">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -3285,10 +3391,10 @@
       <c r="D39" s="10"/>
     </row>
     <row r="40" ht="15.15" spans="1:4">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -3297,10 +3403,10 @@
       <c r="D40" s="10"/>
     </row>
     <row r="41" ht="15.15" spans="1:4">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C41" s="16" t="s">
@@ -3312,7 +3418,7 @@
       <c r="A42" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C42" s="13" t="s">
@@ -3321,10 +3427,10 @@
       <c r="D42" s="12"/>
     </row>
     <row r="43" ht="15.15" spans="1:4">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -3333,10 +3439,10 @@
       <c r="D43" s="10"/>
     </row>
     <row r="44" ht="15.15" spans="1:4">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -3345,10 +3451,10 @@
       <c r="D44" s="10"/>
     </row>
     <row r="45" ht="15.15" spans="1:4">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -3360,7 +3466,7 @@
       <c r="A46" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C46" s="4" t="s">
@@ -3369,10 +3475,10 @@
       <c r="D46" s="12"/>
     </row>
     <row r="47" ht="15.15" spans="1:4">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -3381,10 +3487,10 @@
       <c r="D47" s="10"/>
     </row>
     <row r="48" ht="15.15" spans="1:4">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -3393,10 +3499,10 @@
       <c r="D48" s="10"/>
     </row>
     <row r="49" ht="15.15" spans="1:4">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -3405,10 +3511,10 @@
       <c r="D49" s="10"/>
     </row>
     <row r="50" ht="15.15" spans="1:4">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -3420,7 +3526,7 @@
       <c r="A51" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C51" s="4" t="s">
@@ -3429,10 +3535,10 @@
       <c r="D51" s="12"/>
     </row>
     <row r="52" ht="15.15" spans="1:4">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C52" s="4" t="s">
@@ -3441,10 +3547,10 @@
       <c r="D52" s="10"/>
     </row>
     <row r="53" ht="15.15" spans="1:4">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -3453,10 +3559,10 @@
       <c r="D53" s="10"/>
     </row>
     <row r="54" ht="15.15" spans="1:4">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C54" s="4" t="s">
@@ -3465,10 +3571,10 @@
       <c r="D54" s="12"/>
     </row>
     <row r="55" ht="15.15" spans="1:4">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C55" s="13" t="s">
@@ -3477,10 +3583,10 @@
       <c r="D55" s="10"/>
     </row>
     <row r="56" ht="15.15" spans="1:4">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C56" s="4" t="s">
@@ -3489,10 +3595,10 @@
       <c r="D56" s="10"/>
     </row>
     <row r="57" ht="15.15" spans="1:4">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C57" s="4" t="s">
@@ -3501,10 +3607,10 @@
       <c r="D57" s="10"/>
     </row>
     <row r="58" ht="15.15" spans="1:4">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C58" s="4" t="s">
@@ -3513,10 +3619,10 @@
       <c r="D58" s="10"/>
     </row>
     <row r="59" ht="15.15" spans="1:4">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C59" s="13" t="s">
@@ -3525,10 +3631,10 @@
       <c r="D59" s="10"/>
     </row>
     <row r="60" ht="15.15" spans="1:4">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C60" s="4" t="s">
@@ -3537,10 +3643,10 @@
       <c r="D60" s="10"/>
     </row>
     <row r="61" ht="15.15" spans="1:4">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C61" s="4" t="s">
@@ -3549,10 +3655,10 @@
       <c r="D61" s="5"/>
     </row>
     <row r="62" ht="15.15" spans="1:4">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C62" s="4" t="s">
@@ -3561,10 +3667,10 @@
       <c r="D62" s="9"/>
     </row>
     <row r="63" ht="15.15" spans="1:4">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C63" s="13" t="s">
@@ -3573,10 +3679,10 @@
       <c r="D63" s="10"/>
     </row>
     <row r="64" ht="15.15" spans="1:4">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C64" s="4" t="s">
@@ -3585,10 +3691,10 @@
       <c r="D64" s="11"/>
     </row>
     <row r="65" ht="15.15" spans="1:4">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C65" s="4" t="s">
@@ -3597,10 +3703,10 @@
       <c r="D65" s="10"/>
     </row>
     <row r="66" ht="15.15" spans="1:4">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C66" s="4" t="s">
@@ -3609,10 +3715,10 @@
       <c r="D66" s="10"/>
     </row>
     <row r="67" ht="15.15" spans="1:4">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C67" s="4" t="s">
@@ -3621,10 +3727,10 @@
       <c r="D67" s="11"/>
     </row>
     <row r="68" ht="15.15" spans="1:4">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C68" s="4" t="s">
@@ -3636,7 +3742,7 @@
       <c r="A69" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C69" s="4" t="s">
@@ -3645,10 +3751,10 @@
       <c r="D69" s="12"/>
     </row>
     <row r="70" ht="15.15" spans="1:4">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C70" s="4" t="s">
@@ -3657,10 +3763,10 @@
       <c r="D70" s="10"/>
     </row>
     <row r="71" ht="15.15" spans="1:4">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C71" s="4" t="s">
@@ -3669,10 +3775,10 @@
       <c r="D71" s="10"/>
     </row>
     <row r="72" ht="15.15" spans="1:4">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C72" s="4" t="s">
@@ -3681,10 +3787,10 @@
       <c r="D72" s="9"/>
     </row>
     <row r="73" ht="15.15" spans="1:4">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C73" s="4" t="s">
@@ -3693,10 +3799,10 @@
       <c r="D73" s="10"/>
     </row>
     <row r="74" ht="15.15" spans="1:4">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C74" s="4" t="s">
@@ -3705,10 +3811,10 @@
       <c r="D74" s="10"/>
     </row>
     <row r="75" ht="15.15" spans="1:4">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C75" s="4" t="s">
@@ -3717,10 +3823,10 @@
       <c r="D75" s="10"/>
     </row>
     <row r="76" ht="15.15" spans="1:4">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C76" s="4" t="s">
@@ -3732,7 +3838,7 @@
       <c r="A77" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C77" s="4" t="s">
@@ -3743,10 +3849,10 @@
       </c>
     </row>
     <row r="78" ht="15.15" spans="1:4">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C78" s="4" t="s">
@@ -3755,10 +3861,10 @@
       <c r="D78" s="10"/>
     </row>
     <row r="79" ht="15.15" spans="1:4">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C79" s="4" t="s">
@@ -3767,10 +3873,10 @@
       <c r="D79" s="10"/>
     </row>
     <row r="80" ht="15.15" spans="1:4">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C80" s="4" t="s">
@@ -3779,10 +3885,10 @@
       <c r="D80" s="10"/>
     </row>
     <row r="81" ht="15.15" spans="1:4">
-      <c r="A81" s="2" t="s">
+      <c r="A81" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C81" s="4" t="s">
@@ -3791,10 +3897,10 @@
       <c r="D81" s="10"/>
     </row>
     <row r="82" ht="15.15" spans="1:4">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C82" s="4" t="s">
@@ -3805,10 +3911,10 @@
       </c>
     </row>
     <row r="83" ht="15.15" spans="1:4">
-      <c r="A83" s="2" t="s">
+      <c r="A83" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C83" s="4" t="s">
@@ -3819,10 +3925,10 @@
       </c>
     </row>
     <row r="84" ht="15.15" spans="1:4">
-      <c r="A84" s="2" t="s">
+      <c r="A84" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C84" s="4" t="s">
@@ -3833,10 +3939,10 @@
       </c>
     </row>
     <row r="85" ht="15.15" spans="1:4">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C85" s="4" t="s">
@@ -3847,10 +3953,10 @@
       </c>
     </row>
     <row r="86" ht="15.15" spans="1:4">
-      <c r="A86" s="2" t="s">
+      <c r="A86" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C86" s="4" t="s">
@@ -3861,10 +3967,10 @@
       </c>
     </row>
     <row r="87" ht="15.15" spans="1:4">
-      <c r="A87" s="2" t="s">
+      <c r="A87" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C87" s="4" t="s">
@@ -3875,10 +3981,10 @@
       </c>
     </row>
     <row r="88" ht="15.15" spans="1:4">
-      <c r="A88" s="2" t="s">
+      <c r="A88" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C88" s="4" t="s">
@@ -3889,10 +3995,10 @@
       </c>
     </row>
     <row r="89" ht="15.15" spans="1:4">
-      <c r="A89" s="2" t="s">
+      <c r="A89" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C89" s="4" t="s">
@@ -3903,10 +4009,10 @@
       </c>
     </row>
     <row r="90" ht="15.15" spans="1:4">
-      <c r="A90" s="2" t="s">
+      <c r="A90" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C90" s="4" t="s">
@@ -3917,10 +4023,10 @@
       </c>
     </row>
     <row r="91" ht="15.15" spans="1:4">
-      <c r="A91" s="2" t="s">
+      <c r="A91" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C91" s="4" t="s">
@@ -3931,10 +4037,10 @@
       </c>
     </row>
     <row r="92" ht="15.15" spans="1:4">
-      <c r="A92" s="2" t="s">
+      <c r="A92" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C92" s="4" t="s">
@@ -3945,10 +4051,10 @@
       </c>
     </row>
     <row r="93" ht="15.15" spans="1:4">
-      <c r="A93" s="2" t="s">
+      <c r="A93" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C93" s="4" t="s">
@@ -3959,10 +4065,10 @@
       </c>
     </row>
     <row r="94" ht="15.15" spans="1:4">
-      <c r="A94" s="2" t="s">
+      <c r="A94" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C94" s="4" t="s">
@@ -3973,10 +4079,10 @@
       </c>
     </row>
     <row r="95" ht="15.15" spans="1:4">
-      <c r="A95" s="2" t="s">
+      <c r="A95" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C95" s="4" t="s">
@@ -3987,10 +4093,10 @@
       </c>
     </row>
     <row r="96" ht="15.15" spans="1:4">
-      <c r="A96" s="2" t="s">
+      <c r="A96" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C96" s="4" t="s">
@@ -4001,10 +4107,10 @@
       </c>
     </row>
     <row r="97" ht="15.15" spans="1:4">
-      <c r="A97" s="2" t="s">
+      <c r="A97" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C97" s="4" t="s">
@@ -4015,10 +4121,10 @@
       </c>
     </row>
     <row r="98" ht="15.15" spans="1:4">
-      <c r="A98" s="2" t="s">
+      <c r="A98" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C98" s="10" t="s">
@@ -4029,10 +4135,10 @@
       </c>
     </row>
     <row r="99" ht="15.15" spans="1:4">
-      <c r="A99" s="2" t="s">
+      <c r="A99" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C99" s="10" t="s">
@@ -4043,10 +4149,10 @@
       </c>
     </row>
     <row r="100" ht="15.15" spans="1:4">
-      <c r="A100" s="2" t="s">
+      <c r="A100" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C100" s="13" t="s">
@@ -4057,10 +4163,10 @@
       </c>
     </row>
     <row r="101" ht="15.15" spans="1:4">
-      <c r="A101" s="2" t="s">
+      <c r="A101" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C101" s="4" t="s">
@@ -4071,10 +4177,10 @@
       </c>
     </row>
     <row r="102" ht="15.15" spans="1:4">
-      <c r="A102" s="2" t="s">
+      <c r="A102" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C102" s="4" t="s">
@@ -4085,10 +4191,10 @@
       </c>
     </row>
     <row r="103" ht="15.15" spans="1:4">
-      <c r="A103" s="2" t="s">
+      <c r="A103" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C103" s="13" t="s">
@@ -4099,10 +4205,10 @@
       </c>
     </row>
     <row r="104" ht="15.15" spans="1:4">
-      <c r="A104" s="2" t="s">
+      <c r="A104" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C104" s="4" t="s">
@@ -4113,10 +4219,10 @@
       </c>
     </row>
     <row r="105" ht="15.15" spans="1:4">
-      <c r="A105" s="2" t="s">
+      <c r="A105" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C105" s="13" t="s">
@@ -4127,10 +4233,10 @@
       </c>
     </row>
     <row r="106" ht="15.15" spans="1:4">
-      <c r="A106" s="2" t="s">
+      <c r="A106" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C106" s="4" t="s">
@@ -4141,10 +4247,10 @@
       </c>
     </row>
     <row r="107" ht="15.15" spans="1:4">
-      <c r="A107" s="2" t="s">
+      <c r="A107" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C107" s="4" t="s">
@@ -4155,10 +4261,10 @@
       </c>
     </row>
     <row r="108" ht="15.15" spans="1:4">
-      <c r="A108" s="2" t="s">
+      <c r="A108" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C108" s="10" t="s">
@@ -4169,10 +4275,10 @@
       </c>
     </row>
     <row r="109" ht="15.15" spans="1:4">
-      <c r="A109" s="2" t="s">
+      <c r="A109" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C109" s="4" t="s">
@@ -4183,10 +4289,10 @@
       </c>
     </row>
     <row r="110" ht="15.15" spans="1:4">
-      <c r="A110" s="2" t="s">
+      <c r="A110" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C110" s="4" t="s">
@@ -4197,10 +4303,10 @@
       </c>
     </row>
     <row r="111" ht="15.15" spans="1:4">
-      <c r="A111" s="2" t="s">
+      <c r="A111" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C111" s="4" t="s">
@@ -4211,10 +4317,10 @@
       </c>
     </row>
     <row r="112" ht="15.15" spans="1:4">
-      <c r="A112" s="2" t="s">
+      <c r="A112" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C112" s="4" t="s">
@@ -4225,10 +4331,10 @@
       </c>
     </row>
     <row r="113" ht="15.15" spans="1:4">
-      <c r="A113" s="2" t="s">
+      <c r="A113" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C113" s="4" t="s">
@@ -4239,10 +4345,10 @@
       </c>
     </row>
     <row r="114" ht="15.15" spans="1:4">
-      <c r="A114" s="2" t="s">
+      <c r="A114" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C114" s="4" t="s">
@@ -4253,10 +4359,10 @@
       </c>
     </row>
     <row r="115" ht="15.15" spans="1:4">
-      <c r="A115" s="2" t="s">
+      <c r="A115" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C115" s="4" t="s">
@@ -4267,10 +4373,10 @@
       </c>
     </row>
     <row r="116" ht="15.15" spans="1:4">
-      <c r="A116" s="2" t="s">
+      <c r="A116" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C116" s="4" t="s">
@@ -4281,10 +4387,10 @@
       </c>
     </row>
     <row r="117" ht="15.15" spans="1:4">
-      <c r="A117" s="2" t="s">
+      <c r="A117" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C117" s="4" t="s">
@@ -4295,10 +4401,10 @@
       </c>
     </row>
     <row r="118" ht="15.15" spans="1:4">
-      <c r="A118" s="2" t="s">
+      <c r="A118" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C118" s="4" t="s">
@@ -4309,10 +4415,10 @@
       </c>
     </row>
     <row r="119" ht="15.15" spans="1:4">
-      <c r="A119" s="2" t="s">
+      <c r="A119" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C119" s="4" t="s">
@@ -4323,10 +4429,10 @@
       </c>
     </row>
     <row r="120" ht="15.15" spans="1:4">
-      <c r="A120" s="2" t="s">
+      <c r="A120" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C120" s="4" t="s">
@@ -4337,10 +4443,10 @@
       </c>
     </row>
     <row r="121" ht="15.15" spans="1:4">
-      <c r="A121" s="2" t="s">
+      <c r="A121" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C121" s="4" t="s">
@@ -4351,10 +4457,10 @@
       </c>
     </row>
     <row r="122" ht="15.15" spans="1:4">
-      <c r="A122" s="2" t="s">
+      <c r="A122" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C122" s="4" t="s">
@@ -4365,10 +4471,10 @@
       </c>
     </row>
     <row r="123" ht="15.15" spans="1:4">
-      <c r="A123" s="2" t="s">
+      <c r="A123" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C123" s="4" t="s">
@@ -4379,10 +4485,10 @@
       </c>
     </row>
     <row r="124" ht="15.15" spans="1:4">
-      <c r="A124" s="2" t="s">
+      <c r="A124" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C124" s="4" t="s">
@@ -4393,10 +4499,10 @@
       </c>
     </row>
     <row r="125" ht="15.15" spans="1:4">
-      <c r="A125" s="2" t="s">
+      <c r="A125" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C125" s="13" t="s">
@@ -4407,10 +4513,10 @@
       </c>
     </row>
     <row r="126" ht="15.15" spans="1:4">
-      <c r="A126" s="2" t="s">
+      <c r="A126" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C126" s="4" t="s">
@@ -4421,10 +4527,10 @@
       </c>
     </row>
     <row r="127" ht="15.15" spans="1:4">
-      <c r="A127" s="2" t="s">
+      <c r="A127" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B127" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C127" s="4" t="s">
@@ -4435,10 +4541,10 @@
       </c>
     </row>
     <row r="128" ht="15.15" spans="1:4">
-      <c r="A128" s="2" t="s">
+      <c r="A128" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C128" s="10" t="s">
@@ -4449,10 +4555,10 @@
       </c>
     </row>
     <row r="129" ht="15.15" spans="1:4">
-      <c r="A129" s="2" t="s">
+      <c r="A129" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C129" s="16" t="s">
@@ -4463,10 +4569,10 @@
       </c>
     </row>
     <row r="130" ht="15.15" spans="1:4">
-      <c r="A130" s="2" t="s">
+      <c r="A130" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C130" s="13" t="s">
@@ -4477,10 +4583,10 @@
       </c>
     </row>
     <row r="131" ht="15.15" spans="1:4">
-      <c r="A131" s="2" t="s">
+      <c r="A131" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B131" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C131" s="4" t="s">
@@ -4491,10 +4597,10 @@
       </c>
     </row>
     <row r="132" ht="15.15" spans="1:4">
-      <c r="A132" s="2" t="s">
+      <c r="A132" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C132" s="4" t="s">
@@ -4505,10 +4611,10 @@
       </c>
     </row>
     <row r="133" ht="15.15" spans="1:4">
-      <c r="A133" s="2" t="s">
+      <c r="A133" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B133" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C133" s="13" t="s">
@@ -4519,10 +4625,10 @@
       </c>
     </row>
     <row r="134" ht="15.15" spans="1:4">
-      <c r="A134" s="2" t="s">
+      <c r="A134" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C134" s="10" t="s">
@@ -4533,10 +4639,10 @@
       </c>
     </row>
     <row r="135" ht="15.15" spans="1:4">
-      <c r="A135" s="2" t="s">
+      <c r="A135" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B135" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C135" s="13" t="s">
@@ -4547,10 +4653,10 @@
       </c>
     </row>
     <row r="136" ht="15.15" spans="1:4">
-      <c r="A136" s="2" t="s">
+      <c r="A136" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C136" s="4" t="s">
@@ -4561,10 +4667,10 @@
       </c>
     </row>
     <row r="137" ht="15.15" spans="1:4">
-      <c r="A137" s="2" t="s">
+      <c r="A137" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B137" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C137" s="13" t="s">
@@ -4575,10 +4681,10 @@
       </c>
     </row>
     <row r="138" ht="15.15" spans="1:4">
-      <c r="A138" s="2" t="s">
+      <c r="A138" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B138" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C138" s="4" t="s">
@@ -4589,10 +4695,10 @@
       </c>
     </row>
     <row r="139" ht="15.15" spans="1:4">
-      <c r="A139" s="2" t="s">
+      <c r="A139" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B139" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C139" s="13" t="s">
@@ -4603,10 +4709,10 @@
       </c>
     </row>
     <row r="140" ht="15.15" spans="1:4">
-      <c r="A140" s="2" t="s">
+      <c r="A140" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C140" s="4" t="s">
@@ -4617,10 +4723,10 @@
       </c>
     </row>
     <row r="141" ht="15.15" spans="1:4">
-      <c r="A141" s="2" t="s">
+      <c r="A141" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B141" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C141" s="4" t="s">
@@ -4631,10 +4737,10 @@
       </c>
     </row>
     <row r="142" ht="15.15" spans="1:4">
-      <c r="A142" s="2" t="s">
+      <c r="A142" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B142" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C142" s="4" t="s">
@@ -4645,10 +4751,10 @@
       </c>
     </row>
     <row r="143" ht="15.15" spans="1:4">
-      <c r="A143" s="2" t="s">
+      <c r="A143" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="B143" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C143" s="4" t="s">
@@ -4659,10 +4765,10 @@
       </c>
     </row>
     <row r="144" ht="15.15" spans="1:4">
-      <c r="A144" s="2" t="s">
+      <c r="A144" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B144" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C144" s="4" t="s">
@@ -4673,10 +4779,10 @@
       </c>
     </row>
     <row r="145" ht="15.15" spans="1:4">
-      <c r="A145" s="2" t="s">
+      <c r="A145" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="B145" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C145" s="4" t="s">
@@ -4687,10 +4793,10 @@
       </c>
     </row>
     <row r="146" ht="15.15" spans="1:4">
-      <c r="A146" s="2" t="s">
+      <c r="A146" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B146" s="3" t="s">
+      <c r="B146" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C146" s="13" t="s">
@@ -4701,10 +4807,10 @@
       </c>
     </row>
     <row r="147" ht="15.15" spans="1:4">
-      <c r="A147" s="2" t="s">
+      <c r="A147" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B147" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C147" s="4" t="s">
@@ -4715,10 +4821,10 @@
       </c>
     </row>
     <row r="148" ht="15.15" spans="1:4">
-      <c r="A148" s="2" t="s">
+      <c r="A148" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="B148" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C148" s="16" t="s">
@@ -4729,10 +4835,10 @@
       </c>
     </row>
     <row r="149" ht="15.15" spans="1:4">
-      <c r="A149" s="2" t="s">
+      <c r="A149" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B149" s="3" t="s">
+      <c r="B149" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C149" s="13" t="s">
@@ -4743,10 +4849,10 @@
       </c>
     </row>
     <row r="150" ht="15.15" spans="1:4">
-      <c r="A150" s="2" t="s">
+      <c r="A150" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="B150" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C150" s="4" t="s">
@@ -4757,10 +4863,10 @@
       </c>
     </row>
     <row r="151" ht="15.15" spans="1:4">
-      <c r="A151" s="2" t="s">
+      <c r="A151" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B151" s="3" t="s">
+      <c r="B151" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C151" s="4" t="s">
@@ -4771,10 +4877,10 @@
       </c>
     </row>
     <row r="152" ht="15.15" spans="1:4">
-      <c r="A152" s="2" t="s">
+      <c r="A152" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B152" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C152" s="4" t="s">
@@ -4785,10 +4891,10 @@
       </c>
     </row>
     <row r="153" ht="15.15" spans="1:4">
-      <c r="A153" s="2" t="s">
+      <c r="A153" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="B153" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C153" s="4" t="s">
@@ -4799,10 +4905,10 @@
       </c>
     </row>
     <row r="154" ht="15.15" spans="1:4">
-      <c r="A154" s="2" t="s">
+      <c r="A154" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B154" s="3" t="s">
+      <c r="B154" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C154" s="13" t="s">
@@ -4813,10 +4919,10 @@
       </c>
     </row>
     <row r="155" ht="15.15" spans="1:4">
-      <c r="A155" s="2" t="s">
+      <c r="A155" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="B155" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C155" s="4" t="s">
@@ -4827,10 +4933,10 @@
       </c>
     </row>
     <row r="156" ht="15.15" spans="1:4">
-      <c r="A156" s="2" t="s">
+      <c r="A156" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="B156" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C156" s="4" t="s">
@@ -4841,10 +4947,10 @@
       </c>
     </row>
     <row r="157" ht="15.15" spans="1:4">
-      <c r="A157" s="2" t="s">
+      <c r="A157" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="B157" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C157" s="13" t="s">
@@ -4855,10 +4961,10 @@
       </c>
     </row>
     <row r="158" ht="15.15" spans="1:4">
-      <c r="A158" s="2" t="s">
+      <c r="A158" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="B158" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C158" s="4" t="s">
@@ -4869,10 +4975,10 @@
       </c>
     </row>
     <row r="159" ht="15.15" spans="1:4">
-      <c r="A159" s="2" t="s">
+      <c r="A159" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B159" s="3" t="s">
+      <c r="B159" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C159" s="4" t="s">
@@ -4883,10 +4989,10 @@
       </c>
     </row>
     <row r="160" ht="15.15" spans="1:4">
-      <c r="A160" s="2" t="s">
+      <c r="A160" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="B160" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C160" s="4" t="s">
@@ -4897,10 +5003,10 @@
       </c>
     </row>
     <row r="161" ht="15.15" spans="1:4">
-      <c r="A161" s="2" t="s">
+      <c r="A161" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B161" s="3" t="s">
+      <c r="B161" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C161" s="16" t="s">
@@ -4911,10 +5017,10 @@
       </c>
     </row>
     <row r="162" ht="15.15" spans="1:4">
-      <c r="A162" s="2" t="s">
+      <c r="A162" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B162" s="3" t="s">
+      <c r="B162" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C162" s="13" t="s">
@@ -4925,10 +5031,10 @@
       </c>
     </row>
     <row r="163" ht="15.15" spans="1:4">
-      <c r="A163" s="2" t="s">
+      <c r="A163" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B163" s="3" t="s">
+      <c r="B163" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C163" s="4" t="s">
@@ -4939,10 +5045,10 @@
       </c>
     </row>
     <row r="164" ht="15.15" spans="1:4">
-      <c r="A164" s="2" t="s">
+      <c r="A164" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B164" s="3" t="s">
+      <c r="B164" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C164" s="4" t="s">
@@ -4953,10 +5059,10 @@
       </c>
     </row>
     <row r="165" ht="15.15" spans="1:4">
-      <c r="A165" s="2" t="s">
+      <c r="A165" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B165" s="3" t="s">
+      <c r="B165" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C165" s="4" t="s">
@@ -4967,10 +5073,10 @@
       </c>
     </row>
     <row r="166" ht="15.15" spans="1:4">
-      <c r="A166" s="2" t="s">
+      <c r="A166" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B166" s="3" t="s">
+      <c r="B166" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C166" s="4" t="s">
@@ -4981,10 +5087,10 @@
       </c>
     </row>
     <row r="167" ht="15.15" spans="1:4">
-      <c r="A167" s="2" t="s">
+      <c r="A167" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B167" s="3" t="s">
+      <c r="B167" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C167" s="16" t="s">
@@ -4995,10 +5101,10 @@
       </c>
     </row>
     <row r="168" ht="15.15" spans="1:4">
-      <c r="A168" s="2" t="s">
+      <c r="A168" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B168" s="3" t="s">
+      <c r="B168" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C168" s="16" t="s">
@@ -5009,10 +5115,10 @@
       </c>
     </row>
     <row r="169" ht="15.15" spans="1:4">
-      <c r="A169" s="2" t="s">
+      <c r="A169" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B169" s="3" t="s">
+      <c r="B169" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C169" s="13" t="s">
@@ -5023,10 +5129,10 @@
       </c>
     </row>
     <row r="170" ht="15.15" spans="1:4">
-      <c r="A170" s="2" t="s">
+      <c r="A170" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B170" s="3" t="s">
+      <c r="B170" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C170" s="4" t="s">
@@ -5037,10 +5143,10 @@
       </c>
     </row>
     <row r="171" ht="15.15" spans="1:4">
-      <c r="A171" s="2" t="s">
+      <c r="A171" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B171" s="3" t="s">
+      <c r="B171" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C171" s="13" t="s">
@@ -5051,10 +5157,10 @@
       </c>
     </row>
     <row r="172" ht="15.15" spans="1:4">
-      <c r="A172" s="2" t="s">
+      <c r="A172" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B172" s="3" t="s">
+      <c r="B172" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C172" s="4" t="s">
@@ -5065,10 +5171,10 @@
       </c>
     </row>
     <row r="173" ht="15.15" spans="1:4">
-      <c r="A173" s="2" t="s">
+      <c r="A173" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B173" s="3" t="s">
+      <c r="B173" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C173" s="13" t="s">
@@ -5079,10 +5185,10 @@
       </c>
     </row>
     <row r="174" ht="15.15" spans="1:4">
-      <c r="A174" s="2" t="s">
+      <c r="A174" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B174" s="3" t="s">
+      <c r="B174" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C174" s="4" t="s">
@@ -5093,10 +5199,10 @@
       </c>
     </row>
     <row r="175" ht="15.15" spans="1:4">
-      <c r="A175" s="2" t="s">
+      <c r="A175" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B175" s="3" t="s">
+      <c r="B175" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C175" s="4" t="s">
@@ -5107,10 +5213,10 @@
       </c>
     </row>
     <row r="176" ht="15.15" spans="1:4">
-      <c r="A176" s="2" t="s">
+      <c r="A176" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B176" s="3" t="s">
+      <c r="B176" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C176" s="16" t="s">
@@ -5121,10 +5227,10 @@
       </c>
     </row>
     <row r="177" ht="15.15" spans="1:4">
-      <c r="A177" s="2" t="s">
+      <c r="A177" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B177" s="3" t="s">
+      <c r="B177" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C177" s="13" t="s">
@@ -5135,10 +5241,10 @@
       </c>
     </row>
     <row r="178" ht="15.15" spans="1:4">
-      <c r="A178" s="2" t="s">
+      <c r="A178" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B178" s="3" t="s">
+      <c r="B178" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C178" s="4" t="s">
@@ -5149,10 +5255,10 @@
       </c>
     </row>
     <row r="179" ht="15.15" spans="1:4">
-      <c r="A179" s="2" t="s">
+      <c r="A179" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B179" s="3" t="s">
+      <c r="B179" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C179" s="13" t="s">
@@ -5163,10 +5269,10 @@
       </c>
     </row>
     <row r="180" ht="15.15" spans="1:4">
-      <c r="A180" s="2" t="s">
+      <c r="A180" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B180" s="3" t="s">
+      <c r="B180" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C180" s="4" t="s">
@@ -5177,10 +5283,10 @@
       </c>
     </row>
     <row r="181" ht="15.15" spans="1:4">
-      <c r="A181" s="2" t="s">
+      <c r="A181" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B181" s="3" t="s">
+      <c r="B181" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C181" s="4" t="s">
@@ -5191,10 +5297,10 @@
       </c>
     </row>
     <row r="182" ht="15.15" spans="1:4">
-      <c r="A182" s="2" t="s">
+      <c r="A182" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B182" s="3" t="s">
+      <c r="B182" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C182" s="4" t="s">
@@ -5205,10 +5311,10 @@
       </c>
     </row>
     <row r="183" ht="15.15" spans="1:4">
-      <c r="A183" s="2" t="s">
+      <c r="A183" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B183" s="3" t="s">
+      <c r="B183" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C183" s="4" t="s">
@@ -5219,10 +5325,10 @@
       </c>
     </row>
     <row r="184" ht="15.15" spans="1:4">
-      <c r="A184" s="2" t="s">
+      <c r="A184" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B184" s="3" t="s">
+      <c r="B184" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C184" s="4" t="s">
@@ -5233,10 +5339,10 @@
       </c>
     </row>
     <row r="185" ht="15.15" spans="1:4">
-      <c r="A185" s="2" t="s">
+      <c r="A185" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="B185" s="3" t="s">
+      <c r="B185" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C185" s="4" t="s">
@@ -5247,10 +5353,10 @@
       </c>
     </row>
     <row r="186" ht="15.15" spans="1:4">
-      <c r="A186" s="2" t="s">
+      <c r="A186" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="B186" s="3" t="s">
+      <c r="B186" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C186" s="4" t="s">
@@ -5261,10 +5367,10 @@
       </c>
     </row>
     <row r="187" ht="15.15" spans="1:4">
-      <c r="A187" s="2" t="s">
+      <c r="A187" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="B187" s="3" t="s">
+      <c r="B187" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C187" s="4" t="s">
@@ -5275,10 +5381,10 @@
       </c>
     </row>
     <row r="188" ht="15.15" spans="1:4">
-      <c r="A188" s="2" t="s">
+      <c r="A188" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B188" s="3" t="s">
+      <c r="B188" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C188" s="4" t="s">
@@ -5289,10 +5395,10 @@
       </c>
     </row>
     <row r="189" ht="15.15" spans="1:4">
-      <c r="A189" s="2" t="s">
+      <c r="A189" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="B189" s="3" t="s">
+      <c r="B189" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C189" s="4" t="s">
@@ -5303,10 +5409,10 @@
       </c>
     </row>
     <row r="190" ht="15.15" spans="1:4">
-      <c r="A190" s="2" t="s">
+      <c r="A190" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="B190" s="3" t="s">
+      <c r="B190" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C190" s="13" t="s">
@@ -5317,10 +5423,10 @@
       </c>
     </row>
     <row r="191" ht="15.15" spans="1:4">
-      <c r="A191" s="2" t="s">
+      <c r="A191" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="B191" s="3" t="s">
+      <c r="B191" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C191" s="4" t="s">
@@ -5331,10 +5437,10 @@
       </c>
     </row>
     <row r="192" ht="15.15" spans="1:4">
-      <c r="A192" s="2" t="s">
+      <c r="A192" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="B192" s="3" t="s">
+      <c r="B192" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C192" s="4" t="s">
@@ -5345,10 +5451,10 @@
       </c>
     </row>
     <row r="193" ht="15.15" spans="1:4">
-      <c r="A193" s="2" t="s">
+      <c r="A193" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B193" s="3" t="s">
+      <c r="B193" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C193" s="4" t="s">
@@ -5359,10 +5465,10 @@
       </c>
     </row>
     <row r="194" ht="15.15" spans="1:4">
-      <c r="A194" s="2" t="s">
+      <c r="A194" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B194" s="3" t="s">
+      <c r="B194" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C194" s="13" t="s">
@@ -5373,10 +5479,10 @@
       </c>
     </row>
     <row r="195" ht="15.15" spans="1:4">
-      <c r="A195" s="2" t="s">
+      <c r="A195" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B195" s="3" t="s">
+      <c r="B195" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C195" s="4" t="s">
@@ -5387,10 +5493,10 @@
       </c>
     </row>
     <row r="196" ht="15.15" spans="1:4">
-      <c r="A196" s="2" t="s">
+      <c r="A196" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="B196" s="3" t="s">
+      <c r="B196" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C196" s="4" t="s">
@@ -5401,10 +5507,10 @@
       </c>
     </row>
     <row r="197" ht="15.15" spans="1:4">
-      <c r="A197" s="2" t="s">
+      <c r="A197" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B197" s="3" t="s">
+      <c r="B197" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C197" s="13" t="s">
@@ -5415,10 +5521,10 @@
       </c>
     </row>
     <row r="198" ht="15.15" spans="1:4">
-      <c r="A198" s="2" t="s">
+      <c r="A198" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B198" s="3" t="s">
+      <c r="B198" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C198" s="4" t="s">
@@ -5429,10 +5535,10 @@
       </c>
     </row>
     <row r="199" ht="15.15" spans="1:4">
-      <c r="A199" s="2" t="s">
+      <c r="A199" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="B199" s="3" t="s">
+      <c r="B199" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C199" s="4" t="s">
@@ -5443,10 +5549,10 @@
       </c>
     </row>
     <row r="200" ht="15.15" spans="1:4">
-      <c r="A200" s="2" t="s">
+      <c r="A200" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B200" s="3" t="s">
+      <c r="B200" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C200" s="4" t="s">
@@ -5457,10 +5563,10 @@
       </c>
     </row>
     <row r="201" ht="15.15" spans="1:4">
-      <c r="A201" s="2" t="s">
+      <c r="A201" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B201" s="3" t="s">
+      <c r="B201" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C201" s="4" t="s">
@@ -5471,10 +5577,10 @@
       </c>
     </row>
     <row r="202" ht="15.15" spans="1:4">
-      <c r="A202" s="2" t="s">
+      <c r="A202" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="B202" s="3" t="s">
+      <c r="B202" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C202" s="4" t="s">
@@ -5485,10 +5591,10 @@
       </c>
     </row>
     <row r="203" ht="15.15" spans="1:4">
-      <c r="A203" s="2" t="s">
+      <c r="A203" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B203" s="3" t="s">
+      <c r="B203" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C203" s="13" t="s">
@@ -5499,10 +5605,10 @@
       </c>
     </row>
     <row r="204" ht="15.15" spans="1:4">
-      <c r="A204" s="2" t="s">
+      <c r="A204" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="B204" s="3" t="s">
+      <c r="B204" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C204" s="4" t="s">
@@ -5513,10 +5619,10 @@
       </c>
     </row>
     <row r="205" ht="15.15" spans="1:4">
-      <c r="A205" s="2" t="s">
+      <c r="A205" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="B205" s="3" t="s">
+      <c r="B205" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C205" s="17" t="s">
@@ -5525,10 +5631,10 @@
       <c r="D205" s="12"/>
     </row>
     <row r="206" ht="15.15" spans="1:4">
-      <c r="A206" s="2" t="s">
+      <c r="A206" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="B206" s="3" t="s">
+      <c r="B206" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C206" s="13" t="s">
@@ -5539,10 +5645,10 @@
       </c>
     </row>
     <row r="207" ht="15.15" spans="1:4">
-      <c r="A207" s="2" t="s">
+      <c r="A207" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="B207" s="3" t="s">
+      <c r="B207" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C207" s="4" t="s">
@@ -5553,10 +5659,10 @@
       </c>
     </row>
     <row r="208" ht="15.15" spans="1:4">
-      <c r="A208" s="2" t="s">
+      <c r="A208" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B208" s="3" t="s">
+      <c r="B208" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C208" s="4" t="s">
@@ -5567,10 +5673,10 @@
       </c>
     </row>
     <row r="209" ht="15.15" spans="1:4">
-      <c r="A209" s="2" t="s">
+      <c r="A209" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B209" s="3" t="s">
+      <c r="B209" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C209" s="13" t="s">
@@ -5581,10 +5687,10 @@
       </c>
     </row>
     <row r="210" ht="15.15" spans="1:4">
-      <c r="A210" s="2" t="s">
+      <c r="A210" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B210" s="3" t="s">
+      <c r="B210" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C210" s="4" t="s">
@@ -5595,10 +5701,10 @@
       </c>
     </row>
     <row r="211" ht="15.15" spans="1:4">
-      <c r="A211" s="2" t="s">
+      <c r="A211" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="B211" s="3" t="s">
+      <c r="B211" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C211" s="10" t="s">
@@ -5609,10 +5715,10 @@
       </c>
     </row>
     <row r="212" ht="15.15" spans="1:4">
-      <c r="A212" s="2" t="s">
+      <c r="A212" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="B212" s="3" t="s">
+      <c r="B212" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C212" s="10" t="s">
@@ -5623,10 +5729,10 @@
       </c>
     </row>
     <row r="213" ht="15.15" spans="1:4">
-      <c r="A213" s="2" t="s">
+      <c r="A213" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="B213" s="3" t="s">
+      <c r="B213" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C213" s="10" t="s">
@@ -5637,10 +5743,10 @@
       </c>
     </row>
     <row r="214" ht="15.15" spans="1:4">
-      <c r="A214" s="2" t="s">
+      <c r="A214" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="B214" s="3" t="s">
+      <c r="B214" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C214" s="4" t="s">
@@ -5651,10 +5757,10 @@
       </c>
     </row>
     <row r="215" ht="15.15" spans="1:4">
-      <c r="A215" s="2" t="s">
+      <c r="A215" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="B215" s="3" t="s">
+      <c r="B215" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C215" s="13" t="s">
@@ -5665,10 +5771,10 @@
       </c>
     </row>
     <row r="216" ht="15.15" spans="1:4">
-      <c r="A216" s="2" t="s">
+      <c r="A216" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="B216" s="3" t="s">
+      <c r="B216" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C216" s="4" t="s">
@@ -5679,10 +5785,10 @@
       </c>
     </row>
     <row r="217" ht="15.15" spans="1:4">
-      <c r="A217" s="2" t="s">
+      <c r="A217" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="B217" s="3" t="s">
+      <c r="B217" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C217" s="4" t="s">
@@ -5693,10 +5799,10 @@
       </c>
     </row>
     <row r="218" ht="15.15" spans="1:4">
-      <c r="A218" s="2" t="s">
+      <c r="A218" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="B218" s="3" t="s">
+      <c r="B218" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C218" s="4" t="s">
@@ -5707,10 +5813,10 @@
       </c>
     </row>
     <row r="219" ht="15.15" spans="1:4">
-      <c r="A219" s="2" t="s">
+      <c r="A219" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="B219" s="3" t="s">
+      <c r="B219" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C219" s="4" t="s">
@@ -5721,10 +5827,10 @@
       </c>
     </row>
     <row r="220" ht="15.15" spans="1:4">
-      <c r="A220" s="2" t="s">
+      <c r="A220" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="B220" s="3" t="s">
+      <c r="B220" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C220" s="4" t="s">
@@ -5735,10 +5841,10 @@
       </c>
     </row>
     <row r="221" ht="15.15" spans="1:4">
-      <c r="A221" s="2" t="s">
+      <c r="A221" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="B221" s="3" t="s">
+      <c r="B221" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C221" s="4" t="s">
@@ -5749,10 +5855,10 @@
       </c>
     </row>
     <row r="222" ht="15.15" spans="1:4">
-      <c r="A222" s="2" t="s">
+      <c r="A222" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="B222" s="3" t="s">
+      <c r="B222" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C222" s="17" t="s">
@@ -5763,10 +5869,10 @@
       </c>
     </row>
     <row r="223" ht="15.15" spans="1:4">
-      <c r="A223" s="2" t="s">
+      <c r="A223" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="B223" s="3" t="s">
+      <c r="B223" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C223" s="18" t="s">
@@ -5777,7 +5883,7 @@
       </c>
     </row>
     <row r="224" ht="15.15" spans="1:4">
-      <c r="A224" s="2" t="s">
+      <c r="A224" s="3" t="s">
         <v>307</v>
       </c>
       <c r="B224" s="15" t="s">
@@ -5791,10 +5897,10 @@
       </c>
     </row>
     <row r="225" ht="15.15" spans="1:4">
-      <c r="A225" s="2" t="s">
+      <c r="A225" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="B225" s="3" t="s">
+      <c r="B225" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C225" s="18" t="s">
@@ -5805,10 +5911,10 @@
       </c>
     </row>
     <row r="226" ht="15.15" spans="1:4">
-      <c r="A226" s="2" t="s">
+      <c r="A226" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="B226" s="3" t="s">
+      <c r="B226" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C226" s="10" t="s">
@@ -5819,10 +5925,10 @@
       </c>
     </row>
     <row r="227" ht="15.15" spans="1:4">
-      <c r="A227" s="2" t="s">
+      <c r="A227" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B227" s="3" t="s">
+      <c r="B227" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C227" s="19" t="s">
@@ -5833,10 +5939,10 @@
       </c>
     </row>
     <row r="228" ht="15.15" spans="1:4">
-      <c r="A228" s="2" t="s">
+      <c r="A228" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="B228" s="3" t="s">
+      <c r="B228" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C228" s="18" t="s">
@@ -5847,10 +5953,10 @@
       </c>
     </row>
     <row r="229" ht="15.15" spans="1:4">
-      <c r="A229" s="2" t="s">
+      <c r="A229" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="B229" s="3" t="s">
+      <c r="B229" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C229" s="10" t="s">
@@ -5864,7 +5970,7 @@
       <c r="A230" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="B230" s="3" t="s">
+      <c r="B230" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C230" s="13" t="s">
@@ -5878,7 +5984,7 @@
       <c r="A231" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="B231" s="3" t="s">
+      <c r="B231" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C231" s="4" t="s">
@@ -5889,10 +5995,10 @@
       </c>
     </row>
     <row r="232" ht="15.15" spans="1:4">
-      <c r="A232" s="2" t="s">
+      <c r="A232" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="B232" s="3" t="s">
+      <c r="B232" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C232" s="18" t="s">
@@ -5903,10 +6009,10 @@
       </c>
     </row>
     <row r="233" ht="15.15" spans="1:4">
-      <c r="A233" s="2" t="s">
+      <c r="A233" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="B233" s="3" t="s">
+      <c r="B233" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C233" s="10" t="s">
@@ -5917,10 +6023,10 @@
       </c>
     </row>
     <row r="234" ht="15.15" spans="1:4">
-      <c r="A234" s="2" t="s">
+      <c r="A234" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B234" s="3" t="s">
+      <c r="B234" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C234" s="18" t="s">
@@ -5931,10 +6037,10 @@
       </c>
     </row>
     <row r="235" ht="15.15" spans="1:4">
-      <c r="A235" s="2" t="s">
+      <c r="A235" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="B235" s="3" t="s">
+      <c r="B235" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C235" s="10" t="s">
@@ -5945,10 +6051,10 @@
       </c>
     </row>
     <row r="236" ht="15.15" spans="1:4">
-      <c r="A236" s="2" t="s">
+      <c r="A236" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="B236" s="3" t="s">
+      <c r="B236" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C236" s="10" t="s">
@@ -5959,10 +6065,10 @@
       </c>
     </row>
     <row r="237" ht="15.15" spans="1:4">
-      <c r="A237" s="2" t="s">
+      <c r="A237" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="B237" s="3" t="s">
+      <c r="B237" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C237" s="10" t="s">
@@ -5973,10 +6079,10 @@
       </c>
     </row>
     <row r="238" ht="15.15" spans="1:4">
-      <c r="A238" s="2" t="s">
+      <c r="A238" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="B238" s="3" t="s">
+      <c r="B238" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C238" s="10" t="s">
@@ -5987,10 +6093,10 @@
       </c>
     </row>
     <row r="239" ht="15.15" spans="1:4">
-      <c r="A239" s="2" t="s">
+      <c r="A239" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="B239" s="3" t="s">
+      <c r="B239" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C239" s="10" t="s">
@@ -6001,10 +6107,10 @@
       </c>
     </row>
     <row r="240" ht="15.15" spans="1:4">
-      <c r="A240" s="2" t="s">
+      <c r="A240" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="B240" s="3" t="s">
+      <c r="B240" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C240" s="10" t="s">
@@ -6013,10 +6119,10 @@
       <c r="D240" s="14"/>
     </row>
     <row r="241" ht="15.15" spans="1:4">
-      <c r="A241" s="2" t="s">
+      <c r="A241" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="B241" s="3" t="s">
+      <c r="B241" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C241" s="18" t="s">
@@ -6027,10 +6133,10 @@
       </c>
     </row>
     <row r="242" ht="15.15" spans="1:4">
-      <c r="A242" s="2" t="s">
+      <c r="A242" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="B242" s="3" t="s">
+      <c r="B242" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C242" s="10" t="s">
@@ -6041,10 +6147,10 @@
       </c>
     </row>
     <row r="243" ht="15.15" spans="1:4">
-      <c r="A243" s="2" t="s">
+      <c r="A243" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="B243" s="3" t="s">
+      <c r="B243" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C243" s="10" t="s">
@@ -6055,10 +6161,10 @@
       </c>
     </row>
     <row r="244" ht="15.15" spans="1:4">
-      <c r="A244" s="2" t="s">
+      <c r="A244" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="B244" s="3" t="s">
+      <c r="B244" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C244" s="4" t="s">
@@ -6069,10 +6175,10 @@
       </c>
     </row>
     <row r="245" ht="15.15" spans="1:4">
-      <c r="A245" s="2" t="s">
+      <c r="A245" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="B245" s="3" t="s">
+      <c r="B245" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C245" s="4" t="s">
@@ -6083,10 +6189,10 @@
       </c>
     </row>
     <row r="246" ht="15.15" spans="1:4">
-      <c r="A246" s="2" t="s">
+      <c r="A246" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="B246" s="3" t="s">
+      <c r="B246" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C246" s="4" t="s">
@@ -6097,10 +6203,10 @@
       </c>
     </row>
     <row r="247" ht="15.15" spans="1:4">
-      <c r="A247" s="2" t="s">
+      <c r="A247" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="B247" s="3" t="s">
+      <c r="B247" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C247" s="4" t="s">
@@ -6111,10 +6217,10 @@
       </c>
     </row>
     <row r="248" ht="15.15" spans="1:4">
-      <c r="A248" s="2" t="s">
+      <c r="A248" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="B248" s="3" t="s">
+      <c r="B248" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C248" s="13" t="s">
@@ -6125,10 +6231,10 @@
       </c>
     </row>
     <row r="249" ht="15.15" spans="1:4">
-      <c r="A249" s="2" t="s">
+      <c r="A249" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="B249" s="3" t="s">
+      <c r="B249" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C249" s="4" t="s">
@@ -6139,10 +6245,10 @@
       </c>
     </row>
     <row r="250" ht="15.15" spans="1:4">
-      <c r="A250" s="2" t="s">
+      <c r="A250" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="B250" s="3" t="s">
+      <c r="B250" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C250" s="4" t="s">
@@ -6153,10 +6259,10 @@
       </c>
     </row>
     <row r="251" ht="15.15" spans="1:4">
-      <c r="A251" s="2" t="s">
+      <c r="A251" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="B251" s="3" t="s">
+      <c r="B251" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C251" s="13" t="s">
@@ -6167,10 +6273,10 @@
       </c>
     </row>
     <row r="252" ht="15.15" spans="1:4">
-      <c r="A252" s="2" t="s">
+      <c r="A252" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="B252" s="3" t="s">
+      <c r="B252" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C252" s="4" t="s">
@@ -6181,10 +6287,10 @@
       </c>
     </row>
     <row r="253" ht="15.15" spans="1:4">
-      <c r="A253" s="2" t="s">
+      <c r="A253" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="B253" s="3" t="s">
+      <c r="B253" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C253" s="13" t="s">
@@ -6195,10 +6301,10 @@
       </c>
     </row>
     <row r="254" ht="15.15" spans="1:4">
-      <c r="A254" s="2" t="s">
+      <c r="A254" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="B254" s="3" t="s">
+      <c r="B254" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C254" s="4" t="s">
@@ -6209,10 +6315,10 @@
       </c>
     </row>
     <row r="255" ht="15.15" spans="1:4">
-      <c r="A255" s="2" t="s">
+      <c r="A255" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="B255" s="3" t="s">
+      <c r="B255" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C255" s="16" t="s">
@@ -6223,10 +6329,10 @@
       </c>
     </row>
     <row r="256" ht="15.15" spans="1:4">
-      <c r="A256" s="2" t="s">
+      <c r="A256" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="B256" s="3" t="s">
+      <c r="B256" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C256" s="13" t="s">
@@ -6237,10 +6343,10 @@
       </c>
     </row>
     <row r="257" ht="15.15" spans="1:4">
-      <c r="A257" s="2" t="s">
+      <c r="A257" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="B257" s="3" t="s">
+      <c r="B257" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C257" s="4" t="s">
@@ -6251,10 +6357,10 @@
       </c>
     </row>
     <row r="258" ht="15.15" spans="1:4">
-      <c r="A258" s="2" t="s">
+      <c r="A258" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="B258" s="3" t="s">
+      <c r="B258" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C258" s="4" t="s">
@@ -6265,10 +6371,10 @@
       </c>
     </row>
     <row r="259" ht="15.15" spans="1:4">
-      <c r="A259" s="2" t="s">
+      <c r="A259" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="B259" s="3" t="s">
+      <c r="B259" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C259" s="10" t="s">
@@ -6279,10 +6385,10 @@
       </c>
     </row>
     <row r="260" ht="15.15" spans="1:4">
-      <c r="A260" s="2" t="s">
+      <c r="A260" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="B260" s="3" t="s">
+      <c r="B260" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C260" s="4" t="s">
@@ -6293,10 +6399,10 @@
       </c>
     </row>
     <row r="261" ht="15.15" spans="1:4">
-      <c r="A261" s="2" t="s">
+      <c r="A261" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="B261" s="3" t="s">
+      <c r="B261" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C261" s="10" t="s">
@@ -6307,10 +6413,10 @@
       </c>
     </row>
     <row r="262" ht="15.15" spans="1:4">
-      <c r="A262" s="2" t="s">
+      <c r="A262" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="B262" s="3" t="s">
+      <c r="B262" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C262" s="4" t="s">
@@ -6321,10 +6427,10 @@
       </c>
     </row>
     <row r="263" ht="15.15" spans="1:4">
-      <c r="A263" s="2" t="s">
+      <c r="A263" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="B263" s="3" t="s">
+      <c r="B263" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C263" s="4" t="s">
@@ -6335,10 +6441,10 @@
       </c>
     </row>
     <row r="264" ht="15.15" spans="1:4">
-      <c r="A264" s="2" t="s">
+      <c r="A264" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="B264" s="3" t="s">
+      <c r="B264" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C264" s="16" t="s">
@@ -6349,10 +6455,10 @@
       </c>
     </row>
     <row r="265" ht="15.15" spans="1:4">
-      <c r="A265" s="2" t="s">
+      <c r="A265" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="B265" s="3" t="s">
+      <c r="B265" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C265" s="13" t="s">
@@ -6363,10 +6469,10 @@
       </c>
     </row>
     <row r="266" ht="15.15" spans="1:4">
-      <c r="A266" s="2" t="s">
+      <c r="A266" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="B266" s="3" t="s">
+      <c r="B266" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C266" s="4" t="s">
@@ -6377,10 +6483,10 @@
       </c>
     </row>
     <row r="267" ht="15.15" spans="1:4">
-      <c r="A267" s="2" t="s">
+      <c r="A267" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="B267" s="3" t="s">
+      <c r="B267" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C267" s="4" t="s">
@@ -6391,10 +6497,10 @@
       </c>
     </row>
     <row r="268" ht="15.15" spans="1:4">
-      <c r="A268" s="2" t="s">
+      <c r="A268" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="B268" s="3" t="s">
+      <c r="B268" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C268" s="4" t="s">
@@ -6405,10 +6511,10 @@
       </c>
     </row>
     <row r="269" ht="15.15" spans="1:4">
-      <c r="A269" s="2" t="s">
+      <c r="A269" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="B269" s="3" t="s">
+      <c r="B269" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C269" s="10" t="s">
@@ -6419,10 +6525,10 @@
       </c>
     </row>
     <row r="270" ht="15.15" spans="1:4">
-      <c r="A270" s="2" t="s">
+      <c r="A270" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="B270" s="3" t="s">
+      <c r="B270" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C270" s="13" t="s">
@@ -6433,10 +6539,10 @@
       </c>
     </row>
     <row r="271" ht="15.15" spans="1:4">
-      <c r="A271" s="2" t="s">
+      <c r="A271" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="B271" s="3" t="s">
+      <c r="B271" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C271" s="4" t="s">
@@ -6447,10 +6553,10 @@
       </c>
     </row>
     <row r="272" ht="15.15" spans="1:4">
-      <c r="A272" s="2" t="s">
+      <c r="A272" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="B272" s="3" t="s">
+      <c r="B272" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C272" s="4" t="s">
@@ -6461,10 +6567,10 @@
       </c>
     </row>
     <row r="273" ht="15.15" spans="1:4">
-      <c r="A273" s="2" t="s">
+      <c r="A273" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="B273" s="3" t="s">
+      <c r="B273" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C273" s="4" t="s">
@@ -6475,10 +6581,10 @@
       </c>
     </row>
     <row r="274" ht="15.15" spans="1:4">
-      <c r="A274" s="2" t="s">
+      <c r="A274" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="B274" s="3" t="s">
+      <c r="B274" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C274" s="13" t="s">
@@ -6489,10 +6595,10 @@
       </c>
     </row>
     <row r="275" ht="15.15" spans="1:4">
-      <c r="A275" s="2" t="s">
+      <c r="A275" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="B275" s="3" t="s">
+      <c r="B275" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C275" s="4" t="s">
@@ -6503,10 +6609,10 @@
       </c>
     </row>
     <row r="276" ht="15.15" spans="1:4">
-      <c r="A276" s="2" t="s">
+      <c r="A276" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="B276" s="3" t="s">
+      <c r="B276" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C276" s="16" t="s">
@@ -6517,10 +6623,10 @@
       </c>
     </row>
     <row r="277" ht="15.15" spans="1:4">
-      <c r="A277" s="2" t="s">
+      <c r="A277" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="B277" s="3" t="s">
+      <c r="B277" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C277" s="13" t="s">
@@ -6531,10 +6637,10 @@
       </c>
     </row>
     <row r="278" ht="15.15" spans="1:4">
-      <c r="A278" s="2" t="s">
+      <c r="A278" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="B278" s="3" t="s">
+      <c r="B278" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C278" s="4" t="s">
@@ -6545,10 +6651,10 @@
       </c>
     </row>
     <row r="279" ht="15.15" spans="1:4">
-      <c r="A279" s="2" t="s">
+      <c r="A279" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="B279" s="3" t="s">
+      <c r="B279" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C279" s="4" t="s">
@@ -6559,10 +6665,10 @@
       </c>
     </row>
     <row r="280" ht="15.15" spans="1:4">
-      <c r="A280" s="2" t="s">
+      <c r="A280" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="B280" s="3" t="s">
+      <c r="B280" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C280" s="13" t="s">
@@ -6573,10 +6679,10 @@
       </c>
     </row>
     <row r="281" ht="15.15" spans="1:4">
-      <c r="A281" s="2" t="s">
+      <c r="A281" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="B281" s="3" t="s">
+      <c r="B281" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C281" s="4" t="s">
@@ -6587,10 +6693,10 @@
       </c>
     </row>
     <row r="282" ht="15.15" spans="1:4">
-      <c r="A282" s="2" t="s">
+      <c r="A282" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="B282" s="3" t="s">
+      <c r="B282" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C282" s="4" t="s">
@@ -6601,10 +6707,10 @@
       </c>
     </row>
     <row r="283" ht="15.15" spans="1:4">
-      <c r="A283" s="2" t="s">
+      <c r="A283" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B283" s="3" t="s">
+      <c r="B283" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C283" s="16" t="s">
@@ -6615,10 +6721,10 @@
       </c>
     </row>
     <row r="284" ht="15.15" spans="1:4">
-      <c r="A284" s="2" t="s">
+      <c r="A284" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="B284" s="3" t="s">
+      <c r="B284" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C284" s="13" t="s">
@@ -6629,10 +6735,10 @@
       </c>
     </row>
     <row r="285" ht="15.15" spans="1:4">
-      <c r="A285" s="2" t="s">
+      <c r="A285" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="B285" s="3" t="s">
+      <c r="B285" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C285" s="4" t="s">
@@ -6643,10 +6749,10 @@
       </c>
     </row>
     <row r="286" ht="15.15" spans="1:4">
-      <c r="A286" s="2" t="s">
+      <c r="A286" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="B286" s="3" t="s">
+      <c r="B286" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C286" s="4" t="s">
@@ -6657,10 +6763,10 @@
       </c>
     </row>
     <row r="287" ht="15.15" spans="1:4">
-      <c r="A287" s="2" t="s">
+      <c r="A287" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="B287" s="3" t="s">
+      <c r="B287" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C287" s="4" t="s">
@@ -6671,10 +6777,10 @@
       </c>
     </row>
     <row r="288" ht="15.15" spans="1:4">
-      <c r="A288" s="2" t="s">
+      <c r="A288" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="B288" s="3" t="s">
+      <c r="B288" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C288" s="4" t="s">
@@ -6685,10 +6791,10 @@
       </c>
     </row>
     <row r="289" ht="15.15" spans="1:4">
-      <c r="A289" s="2" t="s">
+      <c r="A289" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="B289" s="3" t="s">
+      <c r="B289" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C289" s="4" t="s">
@@ -6699,10 +6805,10 @@
       </c>
     </row>
     <row r="290" ht="15.15" spans="1:4">
-      <c r="A290" s="2" t="s">
+      <c r="A290" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="B290" s="3" t="s">
+      <c r="B290" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C290" s="4" t="s">
@@ -6713,10 +6819,10 @@
       </c>
     </row>
     <row r="291" ht="15.15" spans="1:4">
-      <c r="A291" s="2" t="s">
+      <c r="A291" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="B291" s="3" t="s">
+      <c r="B291" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C291" s="4" t="s">
@@ -6727,10 +6833,10 @@
       </c>
     </row>
     <row r="292" ht="15.15" spans="1:4">
-      <c r="A292" s="2" t="s">
+      <c r="A292" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B292" s="3" t="s">
+      <c r="B292" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C292" s="4" t="s">
@@ -6741,10 +6847,10 @@
       </c>
     </row>
     <row r="293" ht="15.15" spans="1:4">
-      <c r="A293" s="2" t="s">
+      <c r="A293" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="B293" s="3" t="s">
+      <c r="B293" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C293" s="4" t="s">
@@ -6755,10 +6861,10 @@
       </c>
     </row>
     <row r="294" ht="15.15" spans="1:4">
-      <c r="A294" s="2" t="s">
+      <c r="A294" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="B294" s="3" t="s">
+      <c r="B294" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C294" s="4" t="s">
@@ -6769,10 +6875,10 @@
       </c>
     </row>
     <row r="295" ht="15.15" spans="1:4">
-      <c r="A295" s="2" t="s">
+      <c r="A295" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="B295" s="3" t="s">
+      <c r="B295" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C295" s="4" t="s">
@@ -6783,10 +6889,10 @@
       </c>
     </row>
     <row r="296" ht="15.15" spans="1:4">
-      <c r="A296" s="2" t="s">
+      <c r="A296" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="B296" s="3" t="s">
+      <c r="B296" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C296" s="4" t="s">
@@ -6797,10 +6903,10 @@
       </c>
     </row>
     <row r="297" ht="15.15" spans="1:4">
-      <c r="A297" s="2" t="s">
+      <c r="A297" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="B297" s="3" t="s">
+      <c r="B297" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C297" s="13" t="s">
@@ -6811,10 +6917,10 @@
       </c>
     </row>
     <row r="298" ht="15.15" spans="1:4">
-      <c r="A298" s="2" t="s">
+      <c r="A298" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="B298" s="3" t="s">
+      <c r="B298" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C298" s="10" t="s">
@@ -6825,10 +6931,10 @@
       </c>
     </row>
     <row r="299" ht="15.15" spans="1:4">
-      <c r="A299" s="2" t="s">
+      <c r="A299" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="B299" s="3" t="s">
+      <c r="B299" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C299" s="16" t="s">
@@ -6839,10 +6945,10 @@
       </c>
     </row>
     <row r="300" ht="15.15" spans="1:4">
-      <c r="A300" s="2" t="s">
+      <c r="A300" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="B300" s="3" t="s">
+      <c r="B300" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C300" s="17" t="s">
@@ -6853,10 +6959,10 @@
       </c>
     </row>
     <row r="301" ht="15.15" spans="1:4">
-      <c r="A301" s="2" t="s">
+      <c r="A301" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="B301" s="3" t="s">
+      <c r="B301" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C301" s="20" t="s">
@@ -6867,10 +6973,10 @@
       </c>
     </row>
     <row r="302" ht="15.15" spans="1:4">
-      <c r="A302" s="2" t="s">
+      <c r="A302" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="B302" s="3" t="s">
+      <c r="B302" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C302" s="10" t="s">
@@ -6881,10 +6987,10 @@
       </c>
     </row>
     <row r="303" ht="15.15" spans="1:4">
-      <c r="A303" s="2" t="s">
+      <c r="A303" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="B303" s="3" t="s">
+      <c r="B303" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C303" s="10" t="s">
@@ -6895,10 +7001,10 @@
       </c>
     </row>
     <row r="304" ht="15.15" spans="1:4">
-      <c r="A304" s="2" t="s">
+      <c r="A304" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="B304" s="3" t="s">
+      <c r="B304" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C304" s="10" t="s">
@@ -6912,7 +7018,7 @@
       <c r="A305" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="B305" s="3" t="s">
+      <c r="B305" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C305" s="4" t="s">
@@ -6923,10 +7029,10 @@
       </c>
     </row>
     <row r="306" ht="15.15" spans="1:4">
-      <c r="A306" s="2" t="s">
+      <c r="A306" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="B306" s="3" t="s">
+      <c r="B306" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C306" s="17" t="s">
@@ -6937,10 +7043,10 @@
       </c>
     </row>
     <row r="307" ht="15.15" spans="1:4">
-      <c r="A307" s="2" t="s">
+      <c r="A307" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="B307" s="3" t="s">
+      <c r="B307" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C307" s="17" t="s">
@@ -6951,10 +7057,10 @@
       </c>
     </row>
     <row r="308" ht="15.15" spans="1:4">
-      <c r="A308" s="2" t="s">
+      <c r="A308" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="B308" s="3" t="s">
+      <c r="B308" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C308" s="18" t="s">
@@ -6965,10 +7071,10 @@
       </c>
     </row>
     <row r="309" ht="15.15" spans="1:4">
-      <c r="A309" s="2" t="s">
+      <c r="A309" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="B309" s="3" t="s">
+      <c r="B309" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C309" s="10" t="s">
@@ -6979,10 +7085,10 @@
       </c>
     </row>
     <row r="310" ht="15.15" spans="1:4">
-      <c r="A310" s="2" t="s">
+      <c r="A310" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="B310" s="3" t="s">
+      <c r="B310" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C310" s="10" t="s">
@@ -6993,10 +7099,10 @@
       </c>
     </row>
     <row r="311" ht="15.15" spans="1:4">
-      <c r="A311" s="2" t="s">
+      <c r="A311" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="B311" s="3" t="s">
+      <c r="B311" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C311" s="10" t="s">
@@ -7007,10 +7113,10 @@
       </c>
     </row>
     <row r="312" ht="15.15" spans="1:4">
-      <c r="A312" s="2" t="s">
+      <c r="A312" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="B312" s="3" t="s">
+      <c r="B312" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C312" s="10" t="s">
@@ -7021,10 +7127,10 @@
       </c>
     </row>
     <row r="313" ht="15.15" spans="1:4">
-      <c r="A313" s="2" t="s">
+      <c r="A313" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="B313" s="3" t="s">
+      <c r="B313" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C313" s="18" t="s">
@@ -7035,10 +7141,10 @@
       </c>
     </row>
     <row r="314" ht="15.15" spans="1:4">
-      <c r="A314" s="2" t="s">
+      <c r="A314" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="B314" s="3" t="s">
+      <c r="B314" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C314" s="10" t="s">
@@ -7049,10 +7155,10 @@
       </c>
     </row>
     <row r="315" ht="15.15" spans="1:4">
-      <c r="A315" s="2" t="s">
+      <c r="A315" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="B315" s="3" t="s">
+      <c r="B315" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C315" s="10" t="s">
@@ -7063,10 +7169,10 @@
       </c>
     </row>
     <row r="316" ht="15.15" spans="1:4">
-      <c r="A316" s="2" t="s">
+      <c r="A316" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="B316" s="3" t="s">
+      <c r="B316" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C316" s="10" t="s">
@@ -7077,10 +7183,10 @@
       </c>
     </row>
     <row r="317" ht="15.15" spans="1:4">
-      <c r="A317" s="2" t="s">
+      <c r="A317" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="B317" s="3" t="s">
+      <c r="B317" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C317" s="18" t="s">
@@ -7091,10 +7197,10 @@
       </c>
     </row>
     <row r="318" ht="15.15" spans="1:4">
-      <c r="A318" s="2" t="s">
+      <c r="A318" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="B318" s="3" t="s">
+      <c r="B318" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C318" s="10" t="s">
@@ -7105,10 +7211,10 @@
       </c>
     </row>
     <row r="319" ht="15.15" spans="1:4">
-      <c r="A319" s="2" t="s">
+      <c r="A319" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="B319" s="3" t="s">
+      <c r="B319" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C319" s="10" t="s">
@@ -7119,10 +7225,10 @@
       </c>
     </row>
     <row r="320" ht="15.15" spans="1:4">
-      <c r="A320" s="2" t="s">
+      <c r="A320" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B320" s="3" t="s">
+      <c r="B320" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C320" s="10" t="s">
@@ -7133,10 +7239,10 @@
       </c>
     </row>
     <row r="321" ht="15.15" spans="1:4">
-      <c r="A321" s="2" t="s">
+      <c r="A321" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="B321" s="3" t="s">
+      <c r="B321" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C321" s="10" t="s">
@@ -7147,10 +7253,10 @@
       </c>
     </row>
     <row r="322" ht="15.15" spans="1:4">
-      <c r="A322" s="2" t="s">
+      <c r="A322" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="B322" s="3" t="s">
+      <c r="B322" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C322" s="10" t="s">
@@ -7161,10 +7267,10 @@
       </c>
     </row>
     <row r="323" ht="15.15" spans="1:4">
-      <c r="A323" s="2" t="s">
+      <c r="A323" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="B323" s="3" t="s">
+      <c r="B323" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C323" s="10" t="s">
@@ -7175,10 +7281,10 @@
       </c>
     </row>
     <row r="324" ht="15.15" spans="1:4">
-      <c r="A324" s="2" t="s">
+      <c r="A324" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="B324" s="3" t="s">
+      <c r="B324" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C324" s="10" t="s">
@@ -7189,10 +7295,10 @@
       </c>
     </row>
     <row r="325" ht="15.15" spans="1:4">
-      <c r="A325" s="2" t="s">
+      <c r="A325" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="B325" s="3" t="s">
+      <c r="B325" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C325" s="10" t="s">
@@ -7203,10 +7309,10 @@
       </c>
     </row>
     <row r="326" ht="15.15" spans="1:4">
-      <c r="A326" s="2" t="s">
+      <c r="A326" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="B326" s="3" t="s">
+      <c r="B326" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C326" s="4" t="s">
@@ -7217,10 +7323,10 @@
       </c>
     </row>
     <row r="327" ht="15.15" spans="1:4">
-      <c r="A327" s="2" t="s">
+      <c r="A327" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="B327" s="3" t="s">
+      <c r="B327" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C327" s="10" t="s">
@@ -7231,10 +7337,10 @@
       </c>
     </row>
     <row r="328" ht="15.15" spans="1:4">
-      <c r="A328" s="2" t="s">
+      <c r="A328" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="B328" s="3" t="s">
+      <c r="B328" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C328" s="10" t="s">
@@ -7245,10 +7351,10 @@
       </c>
     </row>
     <row r="329" ht="15.15" spans="1:4">
-      <c r="A329" s="2" t="s">
+      <c r="A329" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="B329" s="3" t="s">
+      <c r="B329" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C329" s="4" t="s">
@@ -7259,10 +7365,10 @@
       </c>
     </row>
     <row r="330" ht="15.15" spans="1:4">
-      <c r="A330" s="2" t="s">
+      <c r="A330" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="B330" s="3" t="s">
+      <c r="B330" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C330" s="4" t="s">
@@ -7273,10 +7379,10 @@
       </c>
     </row>
     <row r="331" ht="15.15" spans="1:4">
-      <c r="A331" s="2" t="s">
+      <c r="A331" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="B331" s="3" t="s">
+      <c r="B331" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C331" s="13" t="s">
@@ -7287,10 +7393,10 @@
       </c>
     </row>
     <row r="332" ht="15.15" spans="1:4">
-      <c r="A332" s="2" t="s">
+      <c r="A332" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="B332" s="3" t="s">
+      <c r="B332" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C332" s="4" t="s">
@@ -7301,10 +7407,10 @@
       </c>
     </row>
     <row r="333" ht="15.15" spans="1:4">
-      <c r="A333" s="2" t="s">
+      <c r="A333" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="B333" s="3" t="s">
+      <c r="B333" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C333" s="4" t="s">
@@ -7315,10 +7421,10 @@
       </c>
     </row>
     <row r="334" ht="15.15" spans="1:4">
-      <c r="A334" s="2" t="s">
+      <c r="A334" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="B334" s="3" t="s">
+      <c r="B334" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C334" s="4" t="s">
@@ -7329,10 +7435,10 @@
       </c>
     </row>
     <row r="335" ht="15.15" spans="1:4">
-      <c r="A335" s="2" t="s">
+      <c r="A335" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="B335" s="3" t="s">
+      <c r="B335" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C335" s="4" t="s">
@@ -7343,10 +7449,10 @@
       </c>
     </row>
     <row r="336" ht="15.15" spans="1:4">
-      <c r="A336" s="2" t="s">
+      <c r="A336" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="B336" s="3" t="s">
+      <c r="B336" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C336" s="4" t="s">
@@ -7357,10 +7463,10 @@
       </c>
     </row>
     <row r="337" ht="15.15" spans="1:4">
-      <c r="A337" s="2" t="s">
+      <c r="A337" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="B337" s="3" t="s">
+      <c r="B337" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C337" s="13" t="s">
@@ -7374,7 +7480,7 @@
       <c r="A338" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="B338" s="3" t="s">
+      <c r="B338" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C338" s="4" t="s">
@@ -7383,10 +7489,10 @@
       <c r="D338" s="12"/>
     </row>
     <row r="339" ht="15.15" spans="1:4">
-      <c r="A339" s="2" t="s">
+      <c r="A339" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="B339" s="3" t="s">
+      <c r="B339" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C339" s="13" t="s">
@@ -7397,10 +7503,10 @@
       </c>
     </row>
     <row r="340" ht="15.15" spans="1:4">
-      <c r="A340" s="2" t="s">
+      <c r="A340" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="B340" s="3" t="s">
+      <c r="B340" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C340" s="4" t="s">
@@ -7411,10 +7517,10 @@
       </c>
     </row>
     <row r="341" ht="15.15" spans="1:4">
-      <c r="A341" s="2" t="s">
+      <c r="A341" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="B341" s="3" t="s">
+      <c r="B341" s="1" t="s">
         <v>455</v>
       </c>
       <c r="C341" s="10"/>
@@ -7423,10 +7529,10 @@
       </c>
     </row>
     <row r="342" ht="15.15" spans="1:4">
-      <c r="A342" s="2" t="s">
+      <c r="A342" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="B342" s="3" t="s">
+      <c r="B342" s="1" t="s">
         <v>455</v>
       </c>
       <c r="C342" s="10"/>
@@ -7435,10 +7541,10 @@
       </c>
     </row>
     <row r="343" ht="15.15" spans="1:4">
-      <c r="A343" s="2" t="s">
+      <c r="A343" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="B343" s="3" t="s">
+      <c r="B343" s="1" t="s">
         <v>455</v>
       </c>
       <c r="C343" s="10"/>
@@ -7447,10 +7553,10 @@
       </c>
     </row>
     <row r="344" ht="15.15" spans="1:4">
-      <c r="A344" s="2" t="s">
+      <c r="A344" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="B344" s="3" t="s">
+      <c r="B344" s="1" t="s">
         <v>455</v>
       </c>
       <c r="C344" s="10"/>
@@ -7459,10 +7565,10 @@
       </c>
     </row>
     <row r="345" ht="15.15" spans="1:4">
-      <c r="A345" s="2" t="s">
+      <c r="A345" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="B345" s="3" t="s">
+      <c r="B345" s="1" t="s">
         <v>455</v>
       </c>
       <c r="C345" s="10"/>
@@ -7471,10 +7577,10 @@
       </c>
     </row>
     <row r="346" ht="15.15" spans="1:4">
-      <c r="A346" s="2" t="s">
+      <c r="A346" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="B346" s="3" t="s">
+      <c r="B346" s="1" t="s">
         <v>455</v>
       </c>
       <c r="C346" s="10"/>
@@ -7483,10 +7589,10 @@
       </c>
     </row>
     <row r="347" ht="15.15" spans="1:4">
-      <c r="A347" s="2" t="s">
+      <c r="A347" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="B347" s="3" t="s">
+      <c r="B347" s="1" t="s">
         <v>455</v>
       </c>
       <c r="C347" s="10"/>
@@ -7495,10 +7601,10 @@
       </c>
     </row>
     <row r="348" ht="15.15" spans="1:4">
-      <c r="A348" s="2" t="s">
+      <c r="A348" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="B348" s="3" t="s">
+      <c r="B348" s="1" t="s">
         <v>455</v>
       </c>
       <c r="C348" s="18"/>
@@ -7507,10 +7613,10 @@
       </c>
     </row>
     <row r="349" ht="15.15" spans="1:4">
-      <c r="A349" s="2" t="s">
+      <c r="A349" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="B349" s="3" t="s">
+      <c r="B349" s="1" t="s">
         <v>455</v>
       </c>
       <c r="C349" s="10"/>
@@ -7519,10 +7625,10 @@
       </c>
     </row>
     <row r="350" ht="15.15" spans="1:4">
-      <c r="A350" s="2" t="s">
+      <c r="A350" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="B350" s="3" t="s">
+      <c r="B350" s="1" t="s">
         <v>455</v>
       </c>
       <c r="C350" s="10"/>
@@ -7531,10 +7637,10 @@
       </c>
     </row>
     <row r="351" ht="15.15" spans="1:4">
-      <c r="A351" s="2" t="s">
+      <c r="A351" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="B351" s="3" t="s">
+      <c r="B351" s="1" t="s">
         <v>455</v>
       </c>
       <c r="C351" s="10"/>
@@ -7543,10 +7649,10 @@
       </c>
     </row>
     <row r="352" ht="15.15" spans="1:4">
-      <c r="A352" s="2" t="s">
+      <c r="A352" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="B352" s="3" t="s">
+      <c r="B352" s="1" t="s">
         <v>455</v>
       </c>
       <c r="C352" s="10"/>
@@ -7555,10 +7661,10 @@
       </c>
     </row>
     <row r="353" ht="15.15" spans="1:4">
-      <c r="A353" s="2" t="s">
+      <c r="A353" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="B353" s="3" t="s">
+      <c r="B353" s="1" t="s">
         <v>455</v>
       </c>
       <c r="C353" s="18"/>
@@ -7567,10 +7673,10 @@
       </c>
     </row>
     <row r="354" ht="15.15" spans="1:4">
-      <c r="A354" s="2" t="s">
+      <c r="A354" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="B354" s="3" t="s">
+      <c r="B354" s="1" t="s">
         <v>455</v>
       </c>
       <c r="C354" s="10"/>
@@ -7579,10 +7685,10 @@
       </c>
     </row>
     <row r="355" ht="15.15" spans="1:4">
-      <c r="A355" s="2" t="s">
+      <c r="A355" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="B355" s="3" t="s">
+      <c r="B355" s="1" t="s">
         <v>455</v>
       </c>
       <c r="C355" s="10"/>
@@ -7591,10 +7697,10 @@
       </c>
     </row>
     <row r="356" ht="15.15" spans="1:4">
-      <c r="A356" s="2" t="s">
+      <c r="A356" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="B356" s="3" t="s">
+      <c r="B356" s="1" t="s">
         <v>455</v>
       </c>
       <c r="C356" s="18"/>
@@ -7603,15 +7709,356 @@
       </c>
     </row>
     <row r="357" ht="15.15" spans="1:4">
-      <c r="A357" s="2" t="s">
+      <c r="A357" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="B357" s="3" t="s">
+      <c r="B357" s="1" t="s">
         <v>455</v>
       </c>
       <c r="C357" s="10"/>
       <c r="D357" s="12" t="e">
         <v>#N/A</v>
+      </c>
+    </row>
+    <row r="358" ht="15.15" spans="1:3">
+      <c r="A358" t="s">
+        <v>472</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C358" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="359" ht="15.15" spans="1:3">
+      <c r="A359" t="s">
+        <v>473</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C359" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="360" ht="15.15" spans="1:3">
+      <c r="A360" t="s">
+        <v>474</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C360" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="361" ht="15.15" spans="1:3">
+      <c r="A361" t="s">
+        <v>475</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C361" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="362" ht="15.15" spans="1:3">
+      <c r="A362" t="s">
+        <v>476</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C362" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="363" ht="15.15" spans="1:3">
+      <c r="A363" t="s">
+        <v>477</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C363" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="364" ht="15.15" spans="1:3">
+      <c r="A364" t="s">
+        <v>478</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C364" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="365" ht="15.15" spans="1:3">
+      <c r="A365" t="s">
+        <v>479</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C365" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="366" ht="15.15" spans="1:3">
+      <c r="A366" t="s">
+        <v>480</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C366" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="367" ht="15.15" spans="1:3">
+      <c r="A367" t="s">
+        <v>481</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C367" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="368" ht="15.15" spans="1:3">
+      <c r="A368" t="s">
+        <v>482</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C368" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="369" ht="15.15" spans="1:3">
+      <c r="A369" t="s">
+        <v>483</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C369" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="370" ht="15.15" spans="1:3">
+      <c r="A370" t="s">
+        <v>484</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C370" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="371" ht="15.15" spans="1:3">
+      <c r="A371" t="s">
+        <v>485</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C371" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="372" ht="15.15" spans="1:3">
+      <c r="A372" t="s">
+        <v>486</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C372" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="373" ht="15.15" spans="1:3">
+      <c r="A373" t="s">
+        <v>487</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C373" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="374" ht="15.15" spans="1:3">
+      <c r="A374" t="s">
+        <v>488</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C374" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="375" ht="15.15" spans="1:3">
+      <c r="A375" t="s">
+        <v>489</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C375" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="376" ht="15.15" spans="1:3">
+      <c r="A376" t="s">
+        <v>490</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C376" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="377" ht="15.15" spans="1:3">
+      <c r="A377" t="s">
+        <v>491</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C377" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="378" ht="15.15" spans="1:3">
+      <c r="A378" t="s">
+        <v>492</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C378" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="379" ht="15.15" spans="1:3">
+      <c r="A379" t="s">
+        <v>493</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C379" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="380" ht="15.15" spans="1:3">
+      <c r="A380" t="s">
+        <v>494</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C380" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="381" ht="15.15" spans="1:3">
+      <c r="A381" t="s">
+        <v>495</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C381" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="382" ht="15.15" spans="1:3">
+      <c r="A382" t="s">
+        <v>496</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C382" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="383" ht="15.15" spans="1:3">
+      <c r="A383" t="s">
+        <v>497</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C383" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="384" ht="15.15" spans="1:3">
+      <c r="A384" t="s">
+        <v>498</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C384" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="385" ht="15.15" spans="1:3">
+      <c r="A385" t="s">
+        <v>499</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C385" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="386" ht="15.15" spans="1:3">
+      <c r="A386" t="s">
+        <v>500</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C386" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="387" ht="15.15" spans="1:3">
+      <c r="A387" t="s">
+        <v>501</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C387" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="388" ht="15.15" spans="1:3">
+      <c r="A388" t="s">
+        <v>502</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C388" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -7620,6 +8067,9 @@
     <sortCondition ref="C1:C357"/>
     <sortCondition ref="D1:D357"/>
   </sortState>
+  <conditionalFormatting sqref="A$1:A$1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -7630,1366 +8080,1735 @@
   <sheetPr/>
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J62" sqref="J62"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="3.66666666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88888888888889" style="1"/>
-    <col min="3" max="3" width="4.66666666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.2222222222222" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.66666666666667" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.66666666666667" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88888888888889" style="1"/>
+    <col min="1" max="1" width="3.66666666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.88888888888889" style="2"/>
+    <col min="3" max="3" width="4.66666666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.2222222222222" style="2" customWidth="1"/>
+    <col min="5" max="5" width="6.66666666666667" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.66666666666667" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.88888888888889" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" ht="15.15" spans="1:3">
+      <c r="A1" t="s">
         <v>472</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" ht="15.15" spans="1:3">
+      <c r="A2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" ht="15.15" spans="1:3">
+      <c r="A3" t="s">
+        <v>474</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" ht="15.15" spans="1:3">
+      <c r="A4" t="s">
+        <v>475</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" ht="15.15" spans="1:3">
+      <c r="A5" t="s">
+        <v>476</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" ht="15.15" spans="1:3">
+      <c r="A6" t="s">
+        <v>477</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" ht="15.15" spans="1:3">
+      <c r="A7" t="s">
+        <v>478</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" ht="15.15" spans="1:3">
+      <c r="A8" t="s">
+        <v>479</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" ht="15.15" spans="1:3">
+      <c r="A9" t="s">
+        <v>480</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" ht="15.15" spans="1:3">
+      <c r="A10" t="s">
+        <v>481</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" ht="15.15" spans="1:3">
+      <c r="A11" t="s">
+        <v>482</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" ht="15.15" spans="1:3">
+      <c r="A12" t="s">
+        <v>483</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" ht="15.15" spans="1:3">
+      <c r="A13" t="s">
+        <v>484</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" ht="15.15" spans="1:3">
+      <c r="A14" t="s">
+        <v>485</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" ht="15.15" spans="1:3">
+      <c r="A15" t="s">
+        <v>486</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" ht="15.15" spans="1:3">
+      <c r="A16" t="s">
+        <v>487</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" ht="15.15" spans="1:3">
+      <c r="A17" t="s">
+        <v>488</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" ht="15.15" spans="1:3">
+      <c r="A18" t="s">
+        <v>489</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" ht="15.15" spans="1:3">
+      <c r="A19" t="s">
+        <v>490</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" ht="15.15" spans="1:3">
+      <c r="A20" t="s">
+        <v>491</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" ht="15.15" spans="1:3">
+      <c r="A21" t="s">
+        <v>492</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" ht="15.15" spans="1:3">
+      <c r="A22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" ht="15.15" spans="1:3">
+      <c r="A23" t="s">
+        <v>493</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" ht="15.15" spans="1:3">
+      <c r="A24" t="s">
+        <v>494</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" ht="15.15" spans="1:3">
+      <c r="A25" t="s">
+        <v>495</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" ht="15.15" spans="1:3">
+      <c r="A26" t="s">
+        <v>496</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" ht="15.15" spans="1:3">
+      <c r="A27" t="s">
         <v>497</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="E23" s="1" t="s">
+      <c r="B27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" ht="15.15" spans="1:3">
+      <c r="A28" t="s">
         <v>498</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="B28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" ht="15.15" spans="1:3">
+      <c r="A29" t="s">
         <v>499</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="E25" s="1" t="s">
+      <c r="B29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" ht="15.15" spans="1:3">
+      <c r="A30" t="s">
         <v>500</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="B30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" ht="15.15" spans="1:3">
+      <c r="A31" t="s">
         <v>501</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="1" t="s">
+      <c r="B31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" ht="15.15" spans="1:3">
+      <c r="A32" t="s">
         <v>502</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="1" t="s">
-        <v>478</v>
-      </c>
       <c r="B32" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="D71" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" t="s">
         <v>27</v>
       </c>
     </row>

--- a/server/src/main/resources/fundclass/demo.xlsx
+++ b/server/src/main/resources/fundclass/demo.xlsx
@@ -2956,8 +2956,8 @@
   <sheetPr/>
   <dimension ref="A1:E420"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A391" workbookViewId="0">
+      <selection activeCell="A410" sqref="A410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -2968,7 +2968,7 @@
     <col min="4" max="4" width="43.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" ht="15.15" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2980,7 +2980,7 @@
       </c>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" ht="15.15" spans="1:4">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -2992,7 +2992,7 @@
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" ht="15.15" spans="1:4">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -3004,7 +3004,7 @@
       </c>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" ht="15.15" spans="1:4">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -3016,7 +3016,7 @@
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" ht="15.15" spans="1:4">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -3028,7 +3028,7 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" ht="15.15" spans="1:4">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" ht="15.15" spans="1:4">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -3052,7 +3052,7 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" ht="15.15" spans="1:4">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -3064,7 +3064,7 @@
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" ht="15.15" spans="1:4">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" ht="15.15" spans="1:4">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" ht="15.15" spans="1:4">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
@@ -3100,7 +3100,7 @@
       </c>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" ht="15.15" spans="1:4">
       <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
@@ -3112,7 +3112,7 @@
       </c>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" ht="15.15" spans="1:4">
       <c r="A13" s="6" t="s">
         <v>10</v>
       </c>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" ht="15.15" spans="1:4">
       <c r="A14" s="6" t="s">
         <v>10</v>
       </c>
@@ -3136,7 +3136,7 @@
       </c>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" ht="15.15" spans="1:4">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
@@ -3148,7 +3148,7 @@
       </c>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" ht="15.15" spans="1:4">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
@@ -3160,7 +3160,7 @@
       </c>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" ht="15.15" spans="1:4">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" ht="15.15" spans="1:4">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
@@ -3186,7 +3186,7 @@
       </c>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" ht="15.15" spans="1:4">
       <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
@@ -3198,7 +3198,7 @@
       </c>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" ht="15.15" spans="1:4">
       <c r="A20" s="6" t="s">
         <v>17</v>
       </c>
@@ -3210,7 +3210,7 @@
       </c>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" ht="15.15" spans="1:4">
       <c r="A21" s="3" t="s">
         <v>18</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" ht="15.15" spans="1:4">
       <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
@@ -3236,7 +3236,7 @@
       </c>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" ht="15.15" spans="1:4">
       <c r="A23" s="6" t="s">
         <v>21</v>
       </c>
@@ -3248,7 +3248,7 @@
       </c>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" ht="15.15" spans="1:4">
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" ht="15.15" spans="1:4">
       <c r="A25" s="3" t="s">
         <v>25</v>
       </c>
@@ -3274,7 +3274,7 @@
       </c>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" ht="15.15" spans="1:4">
       <c r="A26" s="3" t="s">
         <v>28</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" ht="15.15" spans="1:4">
       <c r="A27" s="3" t="s">
         <v>31</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" ht="15.15" spans="1:4">
       <c r="A28" s="3" t="s">
         <v>33</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" ht="15.15" spans="1:4">
       <c r="A29" s="3" t="s">
         <v>34</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" ht="15.15" spans="1:4">
       <c r="A30" s="3" t="s">
         <v>36</v>
       </c>
@@ -3342,7 +3342,7 @@
       </c>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" ht="15.15" spans="1:4">
       <c r="A31" s="3" t="s">
         <v>37</v>
       </c>
@@ -3354,7 +3354,7 @@
       </c>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" ht="15.15" spans="1:4">
       <c r="A32" s="3" t="s">
         <v>39</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" ht="15.15" spans="1:4">
       <c r="A33" s="3" t="s">
         <v>40</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" ht="15.15" spans="1:4">
       <c r="A34" s="3" t="s">
         <v>41</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" ht="15.15" spans="1:4">
       <c r="A35" s="3" t="s">
         <v>44</v>
       </c>
@@ -3408,7 +3408,7 @@
       </c>
       <c r="D35" s="10"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" ht="15.15" spans="1:4">
       <c r="A36" s="3" t="s">
         <v>46</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" ht="15.15" spans="1:4">
       <c r="A37" s="3" t="s">
         <v>48</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" ht="15.15" spans="1:4">
       <c r="A38" s="3" t="s">
         <v>49</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" ht="15.15" spans="1:4">
       <c r="A39" s="6" t="s">
         <v>50</v>
       </c>
@@ -3462,7 +3462,7 @@
       </c>
       <c r="D39" s="6"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" ht="15.15" spans="1:4">
       <c r="A40" s="6" t="s">
         <v>50</v>
       </c>
@@ -3474,7 +3474,7 @@
       </c>
       <c r="D40" s="6"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" ht="15.15" spans="1:4">
       <c r="A41" s="6" t="s">
         <v>51</v>
       </c>
@@ -3486,7 +3486,7 @@
       </c>
       <c r="D41" s="6"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" ht="15.15" spans="1:4">
       <c r="A42" s="6" t="s">
         <v>51</v>
       </c>
@@ -3498,7 +3498,7 @@
       </c>
       <c r="D42" s="6"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" ht="15.15" spans="1:4">
       <c r="A43" s="6" t="s">
         <v>52</v>
       </c>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="D43" s="6"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" ht="15.15" spans="1:4">
       <c r="A44" s="6" t="s">
         <v>52</v>
       </c>
@@ -3522,7 +3522,7 @@
       </c>
       <c r="D44" s="6"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" ht="15.15" spans="1:4">
       <c r="A45" s="6" t="s">
         <v>53</v>
       </c>
@@ -3534,7 +3534,7 @@
       </c>
       <c r="D45" s="6"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" ht="15.15" spans="1:4">
       <c r="A46" s="6" t="s">
         <v>53</v>
       </c>
@@ -3546,7 +3546,7 @@
       </c>
       <c r="D46" s="6"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" ht="15.15" spans="1:4">
       <c r="A47" s="6" t="s">
         <v>54</v>
       </c>
@@ -3558,7 +3558,7 @@
       </c>
       <c r="D47" s="6"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" ht="15.15" spans="1:4">
       <c r="A48" s="6" t="s">
         <v>54</v>
       </c>
@@ -3570,7 +3570,7 @@
       </c>
       <c r="D48" s="6"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" ht="15.15" spans="1:4">
       <c r="A49" s="6" t="s">
         <v>55</v>
       </c>
@@ -3582,7 +3582,7 @@
       </c>
       <c r="D49" s="6"/>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" ht="15.15" spans="1:4">
       <c r="A50" s="6" t="s">
         <v>55</v>
       </c>
@@ -3594,7 +3594,7 @@
       </c>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" ht="15.15" spans="1:4">
       <c r="A51" s="3" t="s">
         <v>56</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" ht="15.15" spans="1:4">
       <c r="A52" s="3" t="s">
         <v>58</v>
       </c>
@@ -3620,7 +3620,7 @@
       </c>
       <c r="D52" s="13"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" ht="15.15" spans="1:4">
       <c r="A53" s="3" t="s">
         <v>59</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" ht="15.15" spans="1:4">
       <c r="A54" s="3" t="s">
         <v>62</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" ht="15.15" spans="1:4">
       <c r="A55" s="3" t="s">
         <v>64</v>
       </c>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="D55" s="15"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" ht="15.15" spans="1:4">
       <c r="A56" s="3" t="s">
         <v>66</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" ht="15.15" spans="1:4">
       <c r="A57" s="16" t="s">
         <v>69</v>
       </c>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="D57" s="14"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" ht="15.15" spans="1:4">
       <c r="A58" s="3" t="s">
         <v>70</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" ht="15.15" spans="1:4">
       <c r="A59" s="3" t="s">
         <v>71</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" ht="15.15" spans="1:4">
       <c r="A60" s="3" t="s">
         <v>73</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" ht="15.15" spans="1:4">
       <c r="A61" s="3" t="s">
         <v>75</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" ht="15.15" spans="1:4">
       <c r="A62" s="3" t="s">
         <v>77</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" ht="15.15" spans="1:4">
       <c r="A63" s="3" t="s">
         <v>79</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" ht="15.15" spans="1:4">
       <c r="A64" s="3" t="s">
         <v>81</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" ht="15.15" spans="1:4">
       <c r="A65" s="3" t="s">
         <v>83</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" ht="15.15" spans="1:4">
       <c r="A66" s="3" t="s">
         <v>84</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" ht="15.15" spans="1:4">
       <c r="A67" s="3" t="s">
         <v>85</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" ht="15.15" spans="1:4">
       <c r="A68" s="3" t="s">
         <v>86</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" ht="15.15" spans="1:4">
       <c r="A69" s="3" t="s">
         <v>87</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" ht="15.15" spans="1:4">
       <c r="A70" s="3" t="s">
         <v>88</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" ht="15.15" spans="1:4">
       <c r="A71" s="3" t="s">
         <v>90</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" ht="15.15" spans="1:4">
       <c r="A72" s="3" t="s">
         <v>92</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" ht="15.15" spans="1:4">
       <c r="A73" s="3" t="s">
         <v>93</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" ht="15.15" spans="1:4">
       <c r="A74" s="3" t="s">
         <v>94</v>
       </c>
@@ -3922,7 +3922,7 @@
       </c>
       <c r="D74" s="5"/>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" ht="15.15" spans="1:4">
       <c r="A75" s="3" t="s">
         <v>95</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" ht="15.15" spans="1:4">
       <c r="A76" s="3" t="s">
         <v>96</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" ht="15.15" spans="1:4">
       <c r="A77" s="3" t="s">
         <v>98</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" ht="15.15" spans="1:4">
       <c r="A78" s="3" t="s">
         <v>99</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" ht="15.15" spans="1:4">
       <c r="A79" s="3" t="s">
         <v>100</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" ht="15.15" spans="1:4">
       <c r="A80" s="3" t="s">
         <v>101</v>
       </c>
@@ -4004,7 +4004,7 @@
       </c>
       <c r="D80" s="5"/>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" ht="15.15" spans="1:4">
       <c r="A81" s="3" t="s">
         <v>102</v>
       </c>
@@ -4016,7 +4016,7 @@
       </c>
       <c r="D81" s="5"/>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" ht="15.15" spans="1:4">
       <c r="A82" s="3" t="s">
         <v>103</v>
       </c>
@@ -4028,7 +4028,7 @@
       </c>
       <c r="D82" s="5"/>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" ht="15.15" spans="1:4">
       <c r="A83" s="3" t="s">
         <v>104</v>
       </c>
@@ -4040,7 +4040,7 @@
       </c>
       <c r="D83" s="5"/>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" ht="15.15" spans="1:4">
       <c r="A84" s="3" t="s">
         <v>105</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" ht="15.15" spans="1:4">
       <c r="A85" s="3" t="s">
         <v>106</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" ht="15.15" spans="1:4">
       <c r="A86" s="3" t="s">
         <v>107</v>
       </c>
@@ -4080,7 +4080,7 @@
       </c>
       <c r="D86" s="5"/>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" ht="15.15" spans="1:4">
       <c r="A87" s="3" t="s">
         <v>109</v>
       </c>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="D87" s="5"/>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" ht="15.15" spans="1:4">
       <c r="A88" s="3" t="s">
         <v>110</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" ht="15.15" spans="1:4">
       <c r="A89" s="3" t="s">
         <v>111</v>
       </c>
@@ -4118,7 +4118,7 @@
       </c>
       <c r="D89" s="5"/>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" ht="15.15" spans="1:4">
       <c r="A90" s="3" t="s">
         <v>113</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" ht="15.15" spans="1:4">
       <c r="A91" s="3" t="s">
         <v>114</v>
       </c>
@@ -4146,7 +4146,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" ht="15.15" spans="1:4">
       <c r="A92" s="3" t="s">
         <v>115</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" ht="15.15" spans="1:4">
       <c r="A93" s="3" t="s">
         <v>116</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" ht="15.15" spans="1:4">
       <c r="A94" s="3" t="s">
         <v>118</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" ht="15.15" spans="1:4">
       <c r="A95" s="3" t="s">
         <v>119</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" ht="15.15" spans="1:4">
       <c r="A96" s="3" t="s">
         <v>120</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" ht="15.15" spans="1:4">
       <c r="A97" s="3" t="s">
         <v>121</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" ht="15.15" spans="1:4">
       <c r="A98" s="3" t="s">
         <v>124</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" ht="15.15" spans="1:4">
       <c r="A99" s="3" t="s">
         <v>126</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" ht="15.15" spans="1:4">
       <c r="A100" s="3" t="s">
         <v>128</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" ht="15.15" spans="1:4">
       <c r="A101" s="3" t="s">
         <v>129</v>
       </c>
@@ -4284,7 +4284,7 @@
       </c>
       <c r="D101" s="10"/>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" ht="15.15" spans="1:4">
       <c r="A102" s="3" t="s">
         <v>130</v>
       </c>
@@ -4298,7 +4298,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" ht="15.15" spans="1:4">
       <c r="A103" s="3" t="s">
         <v>131</v>
       </c>
@@ -4310,7 +4310,7 @@
       </c>
       <c r="D103" s="5"/>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" ht="15.15" spans="1:4">
       <c r="A104" s="3" t="s">
         <v>132</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" ht="15.15" spans="1:4">
       <c r="A105" s="3" t="s">
         <v>133</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" ht="15.15" spans="1:4">
       <c r="A106" s="3" t="s">
         <v>134</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" ht="15.15" spans="1:4">
       <c r="A107" s="3" t="s">
         <v>135</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" ht="15.15" spans="1:4">
       <c r="A108" s="3" t="s">
         <v>136</v>
       </c>
@@ -4378,7 +4378,7 @@
       </c>
       <c r="D108" s="5"/>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" ht="15.15" spans="1:4">
       <c r="A109" s="3" t="s">
         <v>137</v>
       </c>
@@ -4390,7 +4390,7 @@
       </c>
       <c r="D109" s="5"/>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" ht="15.15" spans="1:4">
       <c r="A110" s="3" t="s">
         <v>138</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" ht="15.15" spans="1:4">
       <c r="A111" s="3" t="s">
         <v>139</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" ht="15.15" spans="1:4">
       <c r="A112" s="3" t="s">
         <v>140</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" ht="15.15" spans="1:4">
       <c r="A113" s="3" t="s">
         <v>142</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" ht="15.15" spans="1:4">
       <c r="A114" s="3" t="s">
         <v>143</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" ht="15.15" spans="1:4">
       <c r="A115" s="3" t="s">
         <v>144</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" ht="15.15" spans="1:4">
       <c r="A116" s="3" t="s">
         <v>145</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" ht="15.15" spans="1:4">
       <c r="A117" s="3" t="s">
         <v>147</v>
       </c>
@@ -4500,7 +4500,7 @@
       </c>
       <c r="D117" s="5"/>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" ht="15.15" spans="1:4">
       <c r="A118" s="3" t="s">
         <v>148</v>
       </c>
@@ -4512,7 +4512,7 @@
       </c>
       <c r="D118" s="10"/>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" ht="15.15" spans="1:4">
       <c r="A119" s="3" t="s">
         <v>149</v>
       </c>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="D119" s="5"/>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" ht="15.15" spans="1:4">
       <c r="A120" s="3" t="s">
         <v>150</v>
       </c>
@@ -4536,7 +4536,7 @@
       </c>
       <c r="D120" s="5"/>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" ht="15.15" spans="1:4">
       <c r="A121" s="3" t="s">
         <v>151</v>
       </c>
@@ -4548,7 +4548,7 @@
       </c>
       <c r="D121" s="5"/>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" ht="15.15" spans="1:4">
       <c r="A122" s="3" t="s">
         <v>152</v>
       </c>
@@ -4560,7 +4560,7 @@
       </c>
       <c r="D122" s="5"/>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" ht="15.15" spans="1:4">
       <c r="A123" s="3" t="s">
         <v>153</v>
       </c>
@@ -4572,7 +4572,7 @@
       </c>
       <c r="D123" s="5"/>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" ht="15.15" spans="1:4">
       <c r="A124" s="3" t="s">
         <v>154</v>
       </c>
@@ -4584,7 +4584,7 @@
       </c>
       <c r="D124" s="5"/>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" ht="15.15" spans="1:4">
       <c r="A125" s="3" t="s">
         <v>155</v>
       </c>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="D125" s="13"/>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" ht="15.15" spans="1:4">
       <c r="A126" s="6" t="s">
         <v>156</v>
       </c>
@@ -4608,7 +4608,7 @@
       </c>
       <c r="D126" s="6"/>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" ht="15.15" spans="1:4">
       <c r="A127" s="6" t="s">
         <v>156</v>
       </c>
@@ -4620,7 +4620,7 @@
       </c>
       <c r="D127" s="6"/>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" ht="15.15" spans="1:4">
       <c r="A128" s="6" t="s">
         <v>157</v>
       </c>
@@ -4632,7 +4632,7 @@
       </c>
       <c r="D128" s="6"/>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" ht="15.15" spans="1:4">
       <c r="A129" s="6" t="s">
         <v>157</v>
       </c>
@@ -4644,7 +4644,7 @@
       </c>
       <c r="D129" s="6"/>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" ht="15.15" spans="1:4">
       <c r="A130" s="6" t="s">
         <v>158</v>
       </c>
@@ -4656,7 +4656,7 @@
       </c>
       <c r="D130" s="6"/>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" ht="15.15" spans="1:4">
       <c r="A131" s="6" t="s">
         <v>158</v>
       </c>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="D131" s="6"/>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" ht="15.15" spans="1:4">
       <c r="A132" s="6" t="s">
         <v>159</v>
       </c>
@@ -4680,7 +4680,7 @@
       </c>
       <c r="D132" s="8"/>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" ht="15.15" spans="1:4">
       <c r="A133" s="6" t="s">
         <v>159</v>
       </c>
@@ -4692,7 +4692,7 @@
       </c>
       <c r="D133" s="6"/>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" ht="15.15" spans="1:4">
       <c r="A134" s="6" t="s">
         <v>160</v>
       </c>
@@ -4704,7 +4704,7 @@
       </c>
       <c r="D134" s="21"/>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" ht="15.15" spans="1:4">
       <c r="A135" s="6" t="s">
         <v>160</v>
       </c>
@@ -4716,7 +4716,7 @@
       </c>
       <c r="D135" s="21"/>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" ht="15.15" spans="1:4">
       <c r="A136" s="6" t="s">
         <v>161</v>
       </c>
@@ -4728,7 +4728,7 @@
       </c>
       <c r="D136" s="21"/>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" ht="15.15" spans="1:4">
       <c r="A137" s="6" t="s">
         <v>161</v>
       </c>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="D137" s="8"/>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" ht="15.15" spans="1:4">
       <c r="A138" s="6" t="s">
         <v>162</v>
       </c>
@@ -4752,7 +4752,7 @@
       </c>
       <c r="D138" s="6"/>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" ht="15.15" spans="1:4">
       <c r="A139" s="6" t="s">
         <v>162</v>
       </c>
@@ -4764,7 +4764,7 @@
       </c>
       <c r="D139" s="21"/>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" ht="15.15" spans="1:4">
       <c r="A140" s="6" t="s">
         <v>163</v>
       </c>
@@ -4776,7 +4776,7 @@
       </c>
       <c r="D140" s="8"/>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" ht="15.15" spans="1:4">
       <c r="A141" s="6" t="s">
         <v>163</v>
       </c>
@@ -4788,7 +4788,7 @@
       </c>
       <c r="D141" s="6"/>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" ht="15.15" spans="1:4">
       <c r="A142" s="6" t="s">
         <v>164</v>
       </c>
@@ -4800,7 +4800,7 @@
       </c>
       <c r="D142" s="6"/>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" ht="15.15" spans="1:4">
       <c r="A143" s="6" t="s">
         <v>164</v>
       </c>
@@ -4812,7 +4812,7 @@
       </c>
       <c r="D143" s="6"/>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" ht="15.15" spans="1:4">
       <c r="A144" s="6" t="s">
         <v>165</v>
       </c>
@@ -4824,7 +4824,7 @@
       </c>
       <c r="D144" s="21"/>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" ht="15.15" spans="1:4">
       <c r="A145" s="6" t="s">
         <v>165</v>
       </c>
@@ -4836,7 +4836,7 @@
       </c>
       <c r="D145" s="8"/>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" ht="15.15" spans="1:4">
       <c r="A146" s="6" t="s">
         <v>166</v>
       </c>
@@ -4848,7 +4848,7 @@
       </c>
       <c r="D146" s="6"/>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" ht="15.15" spans="1:4">
       <c r="A147" s="6" t="s">
         <v>166</v>
       </c>
@@ -4860,7 +4860,7 @@
       </c>
       <c r="D147" s="6"/>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" ht="15.15" spans="1:4">
       <c r="A148" s="6" t="s">
         <v>167</v>
       </c>
@@ -4872,7 +4872,7 @@
       </c>
       <c r="D148" s="6"/>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" ht="15.15" spans="1:4">
       <c r="A149" s="6" t="s">
         <v>167</v>
       </c>
@@ -4884,7 +4884,7 @@
       </c>
       <c r="D149" s="6"/>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" ht="15.15" spans="1:4">
       <c r="A150" s="6" t="s">
         <v>168</v>
       </c>
@@ -4896,7 +4896,7 @@
       </c>
       <c r="D150" s="6"/>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" ht="15.15" spans="1:4">
       <c r="A151" s="6" t="s">
         <v>168</v>
       </c>
@@ -4908,7 +4908,7 @@
       </c>
       <c r="D151" s="6"/>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" ht="15.15" spans="1:4">
       <c r="A152" s="6" t="s">
         <v>169</v>
       </c>
@@ -4920,7 +4920,7 @@
       </c>
       <c r="D152" s="6"/>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" ht="15.15" spans="1:4">
       <c r="A153" s="6" t="s">
         <v>169</v>
       </c>
@@ -4932,7 +4932,7 @@
       </c>
       <c r="D153" s="6"/>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" ht="15.15" spans="1:4">
       <c r="A154" s="6" t="s">
         <v>170</v>
       </c>
@@ -4944,7 +4944,7 @@
       </c>
       <c r="D154" s="6"/>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" ht="15.15" spans="1:4">
       <c r="A155" s="6" t="s">
         <v>170</v>
       </c>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="D155" s="6"/>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" ht="15.15" spans="1:4">
       <c r="A156" s="6" t="s">
         <v>171</v>
       </c>
@@ -4968,7 +4968,7 @@
       </c>
       <c r="D156" s="21"/>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" ht="15.15" spans="1:4">
       <c r="A157" s="6" t="s">
         <v>171</v>
       </c>
@@ -4980,7 +4980,7 @@
       </c>
       <c r="D157" s="21"/>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" ht="15.15" spans="1:4">
       <c r="A158" s="3" t="s">
         <v>172</v>
       </c>
@@ -4994,7 +4994,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" ht="15.15" spans="1:4">
       <c r="A159" s="3" t="s">
         <v>174</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" ht="15.15" spans="1:4">
       <c r="A160" s="3" t="s">
         <v>176</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" ht="15.15" spans="1:4">
       <c r="A161" s="3" t="s">
         <v>177</v>
       </c>
@@ -5034,7 +5034,7 @@
       </c>
       <c r="D161" s="5"/>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" ht="15.15" spans="1:4">
       <c r="A162" s="3" t="s">
         <v>178</v>
       </c>
@@ -5046,7 +5046,7 @@
       </c>
       <c r="D162" s="5"/>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" ht="15.15" spans="1:4">
       <c r="A163" s="3" t="s">
         <v>179</v>
       </c>
@@ -5058,7 +5058,7 @@
       </c>
       <c r="D163" s="5"/>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" ht="15.15" spans="1:4">
       <c r="A164" s="16" t="s">
         <v>181</v>
       </c>
@@ -5070,7 +5070,7 @@
       </c>
       <c r="D164" s="10"/>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" ht="15.15" spans="1:4">
       <c r="A165" s="3" t="s">
         <v>182</v>
       </c>
@@ -5082,7 +5082,7 @@
       </c>
       <c r="D165" s="5"/>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" ht="15.15" spans="1:4">
       <c r="A166" s="3" t="s">
         <v>183</v>
       </c>
@@ -5094,7 +5094,7 @@
       </c>
       <c r="D166" s="5"/>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" ht="15.15" spans="1:4">
       <c r="A167" s="3" t="s">
         <v>184</v>
       </c>
@@ -5106,7 +5106,7 @@
       </c>
       <c r="D167" s="5"/>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" ht="15.15" spans="1:4">
       <c r="A168" s="6" t="s">
         <v>185</v>
       </c>
@@ -5118,7 +5118,7 @@
       </c>
       <c r="D168" s="6"/>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" ht="15.15" spans="1:4">
       <c r="A169" s="6" t="s">
         <v>185</v>
       </c>
@@ -5130,7 +5130,7 @@
       </c>
       <c r="D169" s="6"/>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" ht="15.15" spans="1:4">
       <c r="A170" s="3" t="s">
         <v>186</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" ht="15.15" spans="1:4">
       <c r="A171" s="3" t="s">
         <v>187</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" ht="15.15" spans="1:4">
       <c r="A172" s="3" t="s">
         <v>188</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" ht="15.15" spans="1:4">
       <c r="A173" s="3" t="s">
         <v>189</v>
       </c>
@@ -5184,7 +5184,7 @@
       </c>
       <c r="D173" s="5"/>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" ht="15.15" spans="1:4">
       <c r="A174" s="3" t="s">
         <v>190</v>
       </c>
@@ -5196,7 +5196,7 @@
       </c>
       <c r="D174" s="5"/>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" ht="15.15" spans="1:4">
       <c r="A175" s="3" t="s">
         <v>191</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" ht="15.15" spans="1:4">
       <c r="A176" s="3" t="s">
         <v>192</v>
       </c>
@@ -5232,13 +5232,13 @@
         <v>6</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D177" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" ht="15.15" spans="1:4">
       <c r="A178" s="3" t="s">
         <v>194</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" ht="15.15" spans="1:4">
       <c r="A179" s="3" t="s">
         <v>196</v>
       </c>
@@ -5264,7 +5264,7 @@
       </c>
       <c r="D179" s="5"/>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" ht="15.15" spans="1:4">
       <c r="A180" s="3" t="s">
         <v>197</v>
       </c>
@@ -5278,7 +5278,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" ht="15.15" spans="1:4">
       <c r="A181" s="3" t="s">
         <v>198</v>
       </c>
@@ -5292,7 +5292,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" ht="15.15" spans="1:4">
       <c r="A182" s="3" t="s">
         <v>199</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" ht="15.15" spans="1:4">
       <c r="A183" s="3" t="s">
         <v>200</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" ht="15.15" spans="1:4">
       <c r="A184" s="3" t="s">
         <v>201</v>
       </c>
@@ -5334,7 +5334,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" ht="15.15" spans="1:4">
       <c r="A185" s="3" t="s">
         <v>202</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" ht="15.15" spans="1:4">
       <c r="A186" s="3" t="s">
         <v>203</v>
       </c>
@@ -5360,7 +5360,7 @@
       </c>
       <c r="D186" s="5"/>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" ht="15.15" spans="1:4">
       <c r="A187" s="3" t="s">
         <v>204</v>
       </c>
@@ -5372,7 +5372,7 @@
       </c>
       <c r="D187" s="5"/>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" ht="15.15" spans="1:4">
       <c r="A188" s="3" t="s">
         <v>205</v>
       </c>
@@ -5386,7 +5386,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" ht="15.15" spans="1:4">
       <c r="A189" s="3" t="s">
         <v>207</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" ht="15.15" spans="1:4">
       <c r="A190" s="3" t="s">
         <v>208</v>
       </c>
@@ -5414,7 +5414,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" ht="15.15" spans="1:4">
       <c r="A191" s="3" t="s">
         <v>210</v>
       </c>
@@ -5428,7 +5428,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" ht="15.15" spans="1:4">
       <c r="A192" s="3" t="s">
         <v>213</v>
       </c>
@@ -5442,7 +5442,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" ht="15.15" spans="1:4">
       <c r="A193" s="3" t="s">
         <v>215</v>
       </c>
@@ -5456,7 +5456,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" ht="15.15" spans="1:4">
       <c r="A194" s="3" t="s">
         <v>216</v>
       </c>
@@ -5470,7 +5470,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" ht="15.15" spans="1:4">
       <c r="A195" s="3" t="s">
         <v>217</v>
       </c>
@@ -5484,7 +5484,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" ht="15.15" spans="1:4">
       <c r="A196" s="16" t="s">
         <v>218</v>
       </c>
@@ -5496,7 +5496,7 @@
       </c>
       <c r="D196" s="10"/>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" ht="15.15" spans="1:4">
       <c r="A197" s="3" t="s">
         <v>219</v>
       </c>
@@ -5508,7 +5508,7 @@
       </c>
       <c r="D197" s="13"/>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" ht="15.15" spans="1:4">
       <c r="A198" s="3" t="s">
         <v>220</v>
       </c>
@@ -5520,7 +5520,7 @@
       </c>
       <c r="D198" s="5"/>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" ht="15.15" spans="1:4">
       <c r="A199" s="3" t="s">
         <v>221</v>
       </c>
@@ -5534,7 +5534,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" ht="15.15" spans="1:4">
       <c r="A200" s="3" t="s">
         <v>223</v>
       </c>
@@ -5546,7 +5546,7 @@
       </c>
       <c r="D200" s="13"/>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" ht="15.15" spans="1:4">
       <c r="A201" s="3" t="s">
         <v>224</v>
       </c>
@@ -5558,7 +5558,7 @@
       </c>
       <c r="D201" s="5"/>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" ht="15.15" spans="1:4">
       <c r="A202" s="3" t="s">
         <v>225</v>
       </c>
@@ -5572,7 +5572,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" ht="15.15" spans="1:4">
       <c r="A203" s="3" t="s">
         <v>226</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" ht="15.15" spans="1:4">
       <c r="A204" s="3" t="s">
         <v>228</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" ht="15.15" spans="1:4">
       <c r="A205" s="3" t="s">
         <v>231</v>
       </c>
@@ -5614,7 +5614,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" ht="15.15" spans="1:4">
       <c r="A206" s="3" t="s">
         <v>233</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" ht="15.15" spans="1:4">
       <c r="A207" s="3" t="s">
         <v>234</v>
       </c>
@@ -5642,7 +5642,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" ht="15.15" spans="1:4">
       <c r="A208" s="3" t="s">
         <v>235</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" ht="15.15" spans="1:4">
       <c r="A209" s="3" t="s">
         <v>237</v>
       </c>
@@ -5670,7 +5670,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" ht="15.15" spans="1:4">
       <c r="A210" s="3" t="s">
         <v>239</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" ht="15.15" spans="1:4">
       <c r="A211" s="3" t="s">
         <v>240</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" ht="15.15" spans="1:4">
       <c r="A212" s="3" t="s">
         <v>241</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" ht="15.15" spans="1:4">
       <c r="A213" s="3" t="s">
         <v>242</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" ht="15.15" spans="1:4">
       <c r="A214" s="3" t="s">
         <v>243</v>
       </c>
@@ -5740,7 +5740,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" ht="15.15" spans="1:4">
       <c r="A215" s="3" t="s">
         <v>245</v>
       </c>
@@ -5754,7 +5754,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" ht="15.15" spans="1:4">
       <c r="A216" s="3" t="s">
         <v>246</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" ht="15.15" spans="1:4">
       <c r="A217" s="3" t="s">
         <v>248</v>
       </c>
@@ -5782,7 +5782,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" ht="15.15" spans="1:4">
       <c r="A218" s="3" t="s">
         <v>250</v>
       </c>
@@ -5796,7 +5796,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" ht="15.15" spans="1:4">
       <c r="A219" s="3" t="s">
         <v>251</v>
       </c>
@@ -5810,7 +5810,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" ht="15.15" spans="1:4">
       <c r="A220" s="3" t="s">
         <v>252</v>
       </c>
@@ -5824,7 +5824,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" ht="15.15" spans="1:4">
       <c r="A221" s="3" t="s">
         <v>253</v>
       </c>
@@ -5838,7 +5838,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" ht="15.15" spans="1:4">
       <c r="A222" s="3" t="s">
         <v>254</v>
       </c>
@@ -5852,7 +5852,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" ht="15.15" spans="1:4">
       <c r="A223" s="3" t="s">
         <v>255</v>
       </c>
@@ -5866,7 +5866,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" ht="15.15" spans="1:4">
       <c r="A224" s="3" t="s">
         <v>257</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" ht="15.15" spans="1:4">
       <c r="A225" s="3" t="s">
         <v>259</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" ht="15.15" spans="1:4">
       <c r="A226" s="3" t="s">
         <v>261</v>
       </c>
@@ -5908,7 +5908,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" ht="15.15" spans="1:4">
       <c r="A227" s="3" t="s">
         <v>263</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" ht="15.15" spans="1:4">
       <c r="A228" s="3" t="s">
         <v>264</v>
       </c>
@@ -5936,7 +5936,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" ht="15.15" spans="1:4">
       <c r="A229" s="3" t="s">
         <v>266</v>
       </c>
@@ -5950,7 +5950,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" ht="15.15" spans="1:4">
       <c r="A230" s="3" t="s">
         <v>268</v>
       </c>
@@ -5964,7 +5964,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" ht="15.15" spans="1:4">
       <c r="A231" s="3" t="s">
         <v>269</v>
       </c>
@@ -5978,7 +5978,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" ht="15.15" spans="1:4">
       <c r="A232" s="3" t="s">
         <v>271</v>
       </c>
@@ -5992,7 +5992,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" ht="15.15" spans="1:4">
       <c r="A233" s="3" t="s">
         <v>273</v>
       </c>
@@ -6006,7 +6006,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" ht="15.15" spans="1:4">
       <c r="A234" s="3" t="s">
         <v>274</v>
       </c>
@@ -6020,7 +6020,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" ht="15.15" spans="1:4">
       <c r="A235" s="3" t="s">
         <v>275</v>
       </c>
@@ -6034,7 +6034,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" ht="15.15" spans="1:4">
       <c r="A236" s="3" t="s">
         <v>277</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" ht="15.15" spans="1:4">
       <c r="A237" s="3" t="s">
         <v>279</v>
       </c>
@@ -6062,7 +6062,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" ht="15.15" spans="1:4">
       <c r="A238" s="3" t="s">
         <v>281</v>
       </c>
@@ -6076,7 +6076,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" ht="15.15" spans="1:4">
       <c r="A239" s="3" t="s">
         <v>282</v>
       </c>
@@ -6090,7 +6090,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" ht="15.15" spans="1:4">
       <c r="A240" s="3" t="s">
         <v>283</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" ht="15.15" spans="1:4">
       <c r="A241" s="3" t="s">
         <v>284</v>
       </c>
@@ -6118,7 +6118,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" ht="15.15" spans="1:4">
       <c r="A242" s="3" t="s">
         <v>285</v>
       </c>
@@ -6132,7 +6132,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" ht="15.15" spans="1:4">
       <c r="A243" s="3" t="s">
         <v>286</v>
       </c>
@@ -6146,7 +6146,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" ht="15.15" spans="1:4">
       <c r="A244" s="3" t="s">
         <v>288</v>
       </c>
@@ -6160,7 +6160,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" ht="15.15" spans="1:4">
       <c r="A245" s="3" t="s">
         <v>290</v>
       </c>
@@ -6174,7 +6174,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" ht="15.15" spans="1:4">
       <c r="A246" s="3" t="s">
         <v>291</v>
       </c>
@@ -6188,7 +6188,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" ht="15.15" spans="1:4">
       <c r="A247" s="3" t="s">
         <v>292</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" ht="15.15" spans="1:4">
       <c r="A248" s="3" t="s">
         <v>293</v>
       </c>
@@ -6216,7 +6216,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" ht="15.15" spans="1:4">
       <c r="A249" s="3" t="s">
         <v>294</v>
       </c>
@@ -6230,7 +6230,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" ht="15.15" spans="1:4">
       <c r="A250" s="3" t="s">
         <v>295</v>
       </c>
@@ -6244,7 +6244,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" ht="15.15" spans="1:4">
       <c r="A251" s="3" t="s">
         <v>297</v>
       </c>
@@ -6258,7 +6258,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" ht="15.15" spans="1:4">
       <c r="A252" s="3" t="s">
         <v>299</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" ht="15.15" spans="1:4">
       <c r="A253" s="3" t="s">
         <v>300</v>
       </c>
@@ -6286,7 +6286,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" ht="15.15" spans="1:4">
       <c r="A254" s="3" t="s">
         <v>301</v>
       </c>
@@ -6300,7 +6300,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" ht="15.15" spans="1:4">
       <c r="A255" s="3" t="s">
         <v>302</v>
       </c>
@@ -6314,7 +6314,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" ht="15.15" spans="1:4">
       <c r="A256" s="3" t="s">
         <v>304</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" ht="15.15" spans="1:4">
       <c r="A257" s="3" t="s">
         <v>305</v>
       </c>
@@ -6342,7 +6342,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" ht="15.15" spans="1:4">
       <c r="A258" s="3" t="s">
         <v>307</v>
       </c>
@@ -6356,7 +6356,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" ht="15.15" spans="1:4">
       <c r="A259" s="3" t="s">
         <v>309</v>
       </c>
@@ -6370,7 +6370,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" ht="15.15" spans="1:4">
       <c r="A260" s="3" t="s">
         <v>312</v>
       </c>
@@ -6384,7 +6384,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" ht="15.15" spans="1:4">
       <c r="A261" s="3" t="s">
         <v>313</v>
       </c>
@@ -6398,7 +6398,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" ht="15.15" spans="1:4">
       <c r="A262" s="3" t="s">
         <v>314</v>
       </c>
@@ -6412,7 +6412,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" ht="15.15" spans="1:4">
       <c r="A263" s="3" t="s">
         <v>315</v>
       </c>
@@ -6424,7 +6424,7 @@
       </c>
       <c r="D263" s="5"/>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" ht="15.15" spans="1:4">
       <c r="A264" s="3" t="s">
         <v>316</v>
       </c>
@@ -6438,7 +6438,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" ht="15.15" spans="1:4">
       <c r="A265" s="3" t="s">
         <v>317</v>
       </c>
@@ -6452,7 +6452,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" ht="15.15" spans="1:4">
       <c r="A266" s="3" t="s">
         <v>318</v>
       </c>
@@ -6464,7 +6464,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" ht="15.15" spans="1:4">
       <c r="A267" s="3" t="s">
         <v>320</v>
       </c>
@@ -6478,7 +6478,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" ht="15.15" spans="1:4">
       <c r="A268" s="3" t="s">
         <v>322</v>
       </c>
@@ -6490,7 +6490,7 @@
       </c>
       <c r="D268" s="5"/>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" ht="15.15" spans="1:4">
       <c r="A269" s="3" t="s">
         <v>324</v>
       </c>
@@ -6504,7 +6504,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" ht="15.15" spans="1:4">
       <c r="A270" s="3" t="s">
         <v>325</v>
       </c>
@@ -6518,7 +6518,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" ht="15.15" spans="1:4">
       <c r="A271" s="3" t="s">
         <v>326</v>
       </c>
@@ -6532,7 +6532,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" ht="15.15" spans="1:4">
       <c r="A272" s="3" t="s">
         <v>327</v>
       </c>
@@ -6546,7 +6546,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" ht="15.15" spans="1:4">
       <c r="A273" s="3" t="s">
         <v>329</v>
       </c>
@@ -6560,7 +6560,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" ht="15.15" spans="1:4">
       <c r="A274" s="3" t="s">
         <v>330</v>
       </c>
@@ -6574,7 +6574,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" ht="15.15" spans="1:4">
       <c r="A275" s="3" t="s">
         <v>332</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" ht="15.15" spans="1:4">
       <c r="A276" s="3" t="s">
         <v>333</v>
       </c>
@@ -6598,7 +6598,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" ht="15.15" spans="1:4">
       <c r="A277" s="3" t="s">
         <v>334</v>
       </c>
@@ -6610,7 +6610,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" ht="15.15" spans="1:4">
       <c r="A278" s="3" t="s">
         <v>335</v>
       </c>
@@ -6624,7 +6624,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" ht="15.15" spans="1:4">
       <c r="A279" s="3" t="s">
         <v>337</v>
       </c>
@@ -6646,13 +6646,13 @@
         <v>6</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>173</v>
+        <v>60</v>
       </c>
       <c r="D280" s="10" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" ht="15.15" spans="1:4">
       <c r="A281" s="3" t="s">
         <v>341</v>
       </c>
@@ -6666,7 +6666,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" ht="15.15" spans="1:4">
       <c r="A282" s="16" t="s">
         <v>342</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" ht="15.15" spans="1:4">
       <c r="A283" s="16" t="s">
         <v>343</v>
       </c>
@@ -6694,7 +6694,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" ht="15.15" spans="1:4">
       <c r="A284" s="3" t="s">
         <v>344</v>
       </c>
@@ -6706,7 +6706,7 @@
       </c>
       <c r="D284" s="5"/>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" ht="15.15" spans="1:4">
       <c r="A285" s="3" t="s">
         <v>345</v>
       </c>
@@ -6718,7 +6718,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" ht="15.15" spans="1:4">
       <c r="A286" s="3" t="s">
         <v>346</v>
       </c>
@@ -6730,7 +6730,7 @@
       </c>
       <c r="D286" s="5"/>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" ht="15.15" spans="1:4">
       <c r="A287" s="3" t="s">
         <v>348</v>
       </c>
@@ -6744,7 +6744,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" ht="15.15" spans="1:4">
       <c r="A288" s="3" t="s">
         <v>349</v>
       </c>
@@ -6758,7 +6758,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" ht="15.15" spans="1:4">
       <c r="A289" s="3" t="s">
         <v>350</v>
       </c>
@@ -6772,7 +6772,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" ht="15.15" spans="1:4">
       <c r="A290" s="3" t="s">
         <v>351</v>
       </c>
@@ -6786,7 +6786,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" ht="15.15" spans="1:4">
       <c r="A291" s="3" t="s">
         <v>353</v>
       </c>
@@ -6798,7 +6798,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" ht="15.15" spans="1:4">
       <c r="A292" s="3" t="s">
         <v>354</v>
       </c>
@@ -6812,7 +6812,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" ht="15.15" spans="1:4">
       <c r="A293" s="3" t="s">
         <v>355</v>
       </c>
@@ -6824,7 +6824,7 @@
       </c>
       <c r="D293" s="5"/>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" ht="15.15" spans="1:4">
       <c r="A294" s="3" t="s">
         <v>356</v>
       </c>
@@ -6836,7 +6836,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" ht="15.15" spans="1:4">
       <c r="A295" s="3" t="s">
         <v>357</v>
       </c>
@@ -6850,7 +6850,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" ht="15.15" spans="1:4">
       <c r="A296" s="3" t="s">
         <v>358</v>
       </c>
@@ -6862,7 +6862,7 @@
       </c>
       <c r="D296" s="5"/>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" ht="15.15" spans="1:4">
       <c r="A297" s="3" t="s">
         <v>359</v>
       </c>
@@ -6876,7 +6876,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" ht="15.15" spans="1:4">
       <c r="A298" s="3" t="s">
         <v>360</v>
       </c>
@@ -6888,7 +6888,7 @@
       </c>
       <c r="D298" s="5"/>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" ht="15.15" spans="1:4">
       <c r="A299" s="16" t="s">
         <v>361</v>
       </c>
@@ -6900,7 +6900,7 @@
       </c>
       <c r="D299" s="10"/>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" ht="15.15" spans="1:4">
       <c r="A300" s="3" t="s">
         <v>362</v>
       </c>
@@ -6914,7 +6914,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" ht="15.15" spans="1:4">
       <c r="A301" s="3" t="s">
         <v>363</v>
       </c>
@@ -6926,7 +6926,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" ht="15.15" spans="1:4">
       <c r="A302" s="3" t="s">
         <v>364</v>
       </c>
@@ -6940,7 +6940,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" ht="15.15" spans="1:4">
       <c r="A303" s="3" t="s">
         <v>366</v>
       </c>
@@ -6954,7 +6954,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" ht="15.15" spans="1:4">
       <c r="A304" s="3" t="s">
         <v>367</v>
       </c>
@@ -6968,7 +6968,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" ht="15.15" spans="1:4">
       <c r="A305" s="3" t="s">
         <v>368</v>
       </c>
@@ -6982,7 +6982,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306" ht="15.15" spans="1:4">
       <c r="A306" s="3" t="s">
         <v>369</v>
       </c>
@@ -6996,7 +6996,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" ht="15.15" spans="1:4">
       <c r="A307" s="3" t="s">
         <v>370</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
+    <row r="308" ht="15.15" spans="1:4">
       <c r="A308" s="3" t="s">
         <v>371</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" ht="15.15" spans="1:4">
       <c r="A309" s="3" t="s">
         <v>372</v>
       </c>
@@ -7036,7 +7036,7 @@
       </c>
       <c r="D309" s="5"/>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" ht="15.15" spans="1:4">
       <c r="A310" s="3" t="s">
         <v>373</v>
       </c>
@@ -7050,7 +7050,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" ht="15.15" spans="1:4">
       <c r="A311" s="3" t="s">
         <v>374</v>
       </c>
@@ -7064,7 +7064,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" ht="15.15" spans="1:4">
       <c r="A312" s="3" t="s">
         <v>376</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" ht="15.15" spans="1:4">
       <c r="A313" s="3" t="s">
         <v>378</v>
       </c>
@@ -7092,7 +7092,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" ht="15.15" spans="1:4">
       <c r="A314" s="3" t="s">
         <v>379</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315" ht="15.15" spans="1:4">
       <c r="A315" s="3" t="s">
         <v>380</v>
       </c>
@@ -7118,7 +7118,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
+    <row r="316" ht="15.15" spans="1:4">
       <c r="A316" s="3" t="s">
         <v>381</v>
       </c>
@@ -7132,7 +7132,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
+    <row r="317" ht="15.15" spans="1:4">
       <c r="A317" s="3" t="s">
         <v>382</v>
       </c>
@@ -7146,7 +7146,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
+    <row r="318" ht="15.15" spans="1:4">
       <c r="A318" s="3" t="s">
         <v>383</v>
       </c>
@@ -7160,7 +7160,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319" ht="15.15" spans="1:4">
       <c r="A319" s="3" t="s">
         <v>384</v>
       </c>
@@ -7172,7 +7172,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
+    <row r="320" ht="15.15" spans="1:4">
       <c r="A320" s="3" t="s">
         <v>385</v>
       </c>
@@ -7186,7 +7186,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321" ht="15.15" spans="1:4">
       <c r="A321" s="3" t="s">
         <v>386</v>
       </c>
@@ -7200,7 +7200,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" ht="15.15" spans="1:4">
       <c r="A322" s="3" t="s">
         <v>387</v>
       </c>
@@ -7214,7 +7214,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323" ht="15.15" spans="1:4">
       <c r="A323" s="3" t="s">
         <v>388</v>
       </c>
@@ -7228,7 +7228,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
+    <row r="324" ht="15.15" spans="1:4">
       <c r="A324" s="3" t="s">
         <v>389</v>
       </c>
@@ -7240,7 +7240,7 @@
       </c>
       <c r="D324" s="5"/>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" ht="15.15" spans="1:4">
       <c r="A325" s="3" t="s">
         <v>391</v>
       </c>
@@ -7254,7 +7254,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326" ht="15.15" spans="1:4">
       <c r="A326" s="16" t="s">
         <v>392</v>
       </c>
@@ -7268,7 +7268,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
+    <row r="327" ht="15.15" spans="1:4">
       <c r="A327" s="3" t="s">
         <v>393</v>
       </c>
@@ -7282,7 +7282,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
+    <row r="328" ht="15.15" spans="1:4">
       <c r="A328" s="3" t="s">
         <v>394</v>
       </c>
@@ -7296,7 +7296,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
+    <row r="329" ht="15.15" spans="1:4">
       <c r="A329" s="3" t="s">
         <v>395</v>
       </c>
@@ -7310,7 +7310,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
+    <row r="330" ht="15.15" spans="1:4">
       <c r="A330" s="3" t="s">
         <v>396</v>
       </c>
@@ -7324,7 +7324,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
+    <row r="331" ht="15.15" spans="1:4">
       <c r="A331" s="3" t="s">
         <v>397</v>
       </c>
@@ -7338,7 +7338,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
+    <row r="332" ht="15.15" spans="1:4">
       <c r="A332" s="3" t="s">
         <v>398</v>
       </c>
@@ -7350,7 +7350,7 @@
       </c>
       <c r="D332" s="5"/>
     </row>
-    <row r="333" spans="1:4">
+    <row r="333" ht="15.15" spans="1:4">
       <c r="A333" s="3" t="s">
         <v>399</v>
       </c>
@@ -7364,7 +7364,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
+    <row r="334" ht="15.15" spans="1:4">
       <c r="A334" s="3" t="s">
         <v>400</v>
       </c>
@@ -7378,7 +7378,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
+    <row r="335" ht="15.15" spans="1:4">
       <c r="A335" s="3" t="s">
         <v>401</v>
       </c>
@@ -7392,7 +7392,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
+    <row r="336" ht="15.15" spans="1:4">
       <c r="A336" s="3" t="s">
         <v>402</v>
       </c>
@@ -7404,7 +7404,7 @@
       </c>
       <c r="D336" s="15"/>
     </row>
-    <row r="337" spans="1:4">
+    <row r="337" ht="15.15" spans="1:4">
       <c r="A337" s="3" t="s">
         <v>404</v>
       </c>
@@ -7418,7 +7418,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
+    <row r="338" ht="15.15" spans="1:4">
       <c r="A338" s="3" t="s">
         <v>405</v>
       </c>
@@ -7432,7 +7432,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
+    <row r="339" ht="15.15" spans="1:4">
       <c r="A339" s="3" t="s">
         <v>406</v>
       </c>
@@ -7446,7 +7446,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
+    <row r="340" ht="15.15" spans="1:4">
       <c r="A340" s="3" t="s">
         <v>407</v>
       </c>
@@ -7460,7 +7460,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
+    <row r="341" ht="15.15" spans="1:4">
       <c r="A341" s="3" t="s">
         <v>408</v>
       </c>
@@ -7474,7 +7474,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
+    <row r="342" ht="15.15" spans="1:4">
       <c r="A342" s="3" t="s">
         <v>409</v>
       </c>
@@ -7488,7 +7488,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
+    <row r="343" ht="15.15" spans="1:4">
       <c r="A343" s="3" t="s">
         <v>411</v>
       </c>
@@ -7502,7 +7502,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
+    <row r="344" ht="15.15" spans="1:4">
       <c r="A344" s="3" t="s">
         <v>412</v>
       </c>
@@ -7516,7 +7516,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
+    <row r="345" ht="15.15" spans="1:4">
       <c r="A345" s="3" t="s">
         <v>413</v>
       </c>
@@ -7530,7 +7530,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
+    <row r="346" ht="15.15" spans="1:4">
       <c r="A346" s="3" t="s">
         <v>414</v>
       </c>
@@ -7544,7 +7544,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" ht="15.15" spans="1:4">
       <c r="A347" s="3" t="s">
         <v>416</v>
       </c>
@@ -7556,7 +7556,7 @@
       </c>
       <c r="D347" s="5"/>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" ht="15.15" spans="1:4">
       <c r="A348" s="3" t="s">
         <v>417</v>
       </c>
@@ -7568,7 +7568,7 @@
       </c>
       <c r="D348" s="15"/>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" ht="15.15" spans="1:4">
       <c r="A349" s="3" t="s">
         <v>418</v>
       </c>
@@ -7580,7 +7580,7 @@
       </c>
       <c r="D349" s="13"/>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" ht="15.15" spans="1:4">
       <c r="A350" s="3" t="s">
         <v>419</v>
       </c>
@@ -7592,7 +7592,7 @@
       </c>
       <c r="D350" s="5"/>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" ht="15.15" spans="1:4">
       <c r="A351" s="3" t="s">
         <v>420</v>
       </c>
@@ -7604,7 +7604,7 @@
       </c>
       <c r="D351" s="5"/>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" ht="15.15" spans="1:4">
       <c r="A352" s="3" t="s">
         <v>421</v>
       </c>
@@ -7618,7 +7618,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" ht="15.15" spans="1:4">
       <c r="A353" s="3" t="s">
         <v>422</v>
       </c>
@@ -7632,7 +7632,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" ht="15.15" spans="1:4">
       <c r="A354" s="3" t="s">
         <v>423</v>
       </c>
@@ -7646,7 +7646,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" ht="15.15" spans="1:4">
       <c r="A355" s="3" t="s">
         <v>425</v>
       </c>
@@ -7660,7 +7660,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" ht="15.15" spans="1:4">
       <c r="A356" s="3" t="s">
         <v>426</v>
       </c>
@@ -7674,7 +7674,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" ht="15.15" spans="1:4">
       <c r="A357" s="3" t="s">
         <v>428</v>
       </c>
@@ -7688,7 +7688,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" ht="15.15" spans="1:4">
       <c r="A358" s="25" t="s">
         <v>429</v>
       </c>
@@ -7702,7 +7702,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" ht="15.15" spans="1:4">
       <c r="A359" s="25" t="s">
         <v>430</v>
       </c>
@@ -7716,7 +7716,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" ht="15.15" spans="1:4">
       <c r="A360" s="25" t="s">
         <v>431</v>
       </c>
@@ -7730,7 +7730,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" ht="15.15" spans="1:4">
       <c r="A361" s="25" t="s">
         <v>432</v>
       </c>
@@ -7744,7 +7744,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" ht="15.15" spans="1:4">
       <c r="A362" s="25" t="s">
         <v>433</v>
       </c>
@@ -7758,7 +7758,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" ht="15.15" spans="1:4">
       <c r="A363" s="25" t="s">
         <v>434</v>
       </c>
@@ -7772,7 +7772,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" ht="15.15" spans="1:4">
       <c r="A364" s="25" t="s">
         <v>435</v>
       </c>
@@ -7786,7 +7786,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" ht="15.15" spans="1:4">
       <c r="A365" s="25" t="s">
         <v>436</v>
       </c>
@@ -7800,7 +7800,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" ht="15.15" spans="1:4">
       <c r="A366" s="25" t="s">
         <v>437</v>
       </c>
@@ -7814,7 +7814,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" ht="15.15" spans="1:4">
       <c r="A367" s="25" t="s">
         <v>438</v>
       </c>
@@ -7828,7 +7828,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" ht="15.15" spans="1:4">
       <c r="A368" s="25" t="s">
         <v>440</v>
       </c>
@@ -7840,7 +7840,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" ht="15.15" spans="1:4">
       <c r="A369" s="25" t="s">
         <v>441</v>
       </c>
@@ -7852,7 +7852,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" ht="15.15" spans="1:4">
       <c r="A370" s="25" t="s">
         <v>442</v>
       </c>
@@ -7866,7 +7866,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" ht="15.15" spans="1:4">
       <c r="A371" s="25" t="s">
         <v>443</v>
       </c>
@@ -7880,7 +7880,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" ht="15.15" spans="1:4">
       <c r="A372" s="25" t="s">
         <v>444</v>
       </c>
@@ -7894,7 +7894,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" ht="15.15" spans="1:4">
       <c r="A373" s="25" t="s">
         <v>445</v>
       </c>
@@ -7908,7 +7908,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" ht="15.15" spans="1:4">
       <c r="A374" s="25" t="s">
         <v>446</v>
       </c>
@@ -7920,7 +7920,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" ht="15.15" spans="1:4">
       <c r="A375" s="29" t="s">
         <v>447</v>
       </c>
@@ -7934,7 +7934,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" ht="15.15" spans="1:4">
       <c r="A376" s="25" t="s">
         <v>449</v>
       </c>
@@ -7948,7 +7948,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" ht="15.15" spans="1:4">
       <c r="A377" s="25" t="s">
         <v>450</v>
       </c>
@@ -7962,7 +7962,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" ht="15.15" spans="1:4">
       <c r="A378" s="25" t="s">
         <v>451</v>
       </c>
@@ -7976,7 +7976,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" ht="15.15" spans="1:4">
       <c r="A379" s="25" t="s">
         <v>452</v>
       </c>
@@ -7990,7 +7990,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" ht="15.15" spans="1:4">
       <c r="A380" s="25" t="s">
         <v>453</v>
       </c>
@@ -8004,7 +8004,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" ht="15.15" spans="1:4">
       <c r="A381" s="25" t="s">
         <v>454</v>
       </c>
@@ -8018,7 +8018,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" ht="15.15" spans="1:4">
       <c r="A382" s="25" t="s">
         <v>455</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" ht="15.15" spans="1:4">
       <c r="A383" s="29" t="s">
         <v>456</v>
       </c>
@@ -8046,7 +8046,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" ht="15.15" spans="1:4">
       <c r="A384" s="25" t="s">
         <v>457</v>
       </c>
@@ -8058,7 +8058,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" ht="15.15" spans="1:4">
       <c r="A385" s="25" t="s">
         <v>458</v>
       </c>
@@ -8070,7 +8070,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" ht="15.15" spans="1:4">
       <c r="A386" s="25" t="s">
         <v>459</v>
       </c>
@@ -8084,7 +8084,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="387" spans="1:5">
+    <row r="387" ht="15.15" spans="1:5">
       <c r="A387" s="25" t="s">
         <v>460</v>
       </c>
@@ -8319,7 +8319,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="404" ht="15.15" spans="1:4">
+    <row r="404" spans="1:4">
       <c r="A404" s="25" t="s">
         <v>479</v>
       </c>
@@ -8327,7 +8327,7 @@
         <v>6</v>
       </c>
       <c r="C404" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D404" s="27" t="s">
         <v>74</v>
@@ -8505,7 +8505,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="418" ht="15.15" spans="1:4">
+    <row r="418" spans="1:4">
       <c r="A418" s="25" t="s">
         <v>494</v>
       </c>
@@ -8513,7 +8513,7 @@
         <v>6</v>
       </c>
       <c r="C418" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D418" s="27" t="s">
         <v>244</v>
@@ -8555,6 +8555,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -9915,6 +9916,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -10284,6 +10286,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -10452,6 +10455,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>